--- a/table/table.xlsx
+++ b/table/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2_cvd_tyg\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDA0E44-4A35-4200-B7D9-1417E5926A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCA6FED-5726-4C23-A300-76C46D6AC14B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="1817">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="2130">
   <si>
     <t>Characteristic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5604,6 +5604,987 @@
   </si>
   <si>
     <t>1.75 (1.55 to 1.95)</t>
+  </si>
+  <si>
+    <t>45.22 (45.01 to 45.42)</t>
+  </si>
+  <si>
+    <t>23.91 (23.87 to 23.94)</t>
+  </si>
+  <si>
+    <t>82.31 (82.20 to 82.42)</t>
+  </si>
+  <si>
+    <t>0.08 (0.08 to 0.08)</t>
+  </si>
+  <si>
+    <t>117.21 (117.03 to 117.39)</t>
+  </si>
+  <si>
+    <t>98.46 (98.25 to 98.67)</t>
+  </si>
+  <si>
+    <t>189.98 (189.60 to 190.35)</t>
+  </si>
+  <si>
+    <t>51.30 (51.16 to 51.43)</t>
+  </si>
+  <si>
+    <t>135.19 (134.04 to 136.33)</t>
+  </si>
+  <si>
+    <t>23.22 (23.09 to 23.35)</t>
+  </si>
+  <si>
+    <t>23.41 (23.21 to 23.60)</t>
+  </si>
+  <si>
+    <t>14.28 (14.27 to 14.30)</t>
+  </si>
+  <si>
+    <t>14.21 (14.17 to 14.26)</t>
+  </si>
+  <si>
+    <t>0.85 (0.84 to 0.85)</t>
+  </si>
+  <si>
+    <t>5.76 (5.75 to 5.77)</t>
+  </si>
+  <si>
+    <t>8.58 (8.58 to 8.59)</t>
+  </si>
+  <si>
+    <t>0.66 (0.66 to 0.66)</t>
+  </si>
+  <si>
+    <t>0.35 (0.34 to 0.35)</t>
+  </si>
+  <si>
+    <t>35.60 (35.52 to 35.68)</t>
+  </si>
+  <si>
+    <t>Age, years, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>BMI, kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>, weighted mean (95% CI)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waist circumstance, cm, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABSI, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBP, mmHG, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fasting glucose, mg/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total cholesterol, mg/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDL-C, mg/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triglyceride, mg/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AST, IU/L, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALT, IU/L, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hemoglobin, g/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUN, mg/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serum creatinine, mg/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uric acid, mg/dL, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TyG, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TyG-ABSI, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIP, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>METS-IR, weighted mean (95% CI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.02 (38.75 to 39.30)</t>
+  </si>
+  <si>
+    <t>22.04 (21.98 to 22.10)</t>
+  </si>
+  <si>
+    <t>75.61 (75.43 to 75.78)</t>
+  </si>
+  <si>
+    <t>110.40 (110.15 to 110.66)</t>
+  </si>
+  <si>
+    <t>89.00 (88.84 to 89.16)</t>
+  </si>
+  <si>
+    <t>176.47 (175.88 to 177.05)</t>
+  </si>
+  <si>
+    <t>58.93 (58.69 to 59.17)</t>
+  </si>
+  <si>
+    <t>56.47 (56.24 to 56.70)</t>
+  </si>
+  <si>
+    <t>20.35 (20.14 to 20.56)</t>
+  </si>
+  <si>
+    <t>16.76 (16.54 to 16.99)</t>
+  </si>
+  <si>
+    <t>13.66 (13.63 to 13.69)</t>
+  </si>
+  <si>
+    <t>13.74 (13.66 to 13.81)</t>
+  </si>
+  <si>
+    <t>0.79 (0.79 to 0.80)</t>
+  </si>
+  <si>
+    <t>5.81 (5.80 to 5.83)</t>
+  </si>
+  <si>
+    <t>7.80 (7.79 to 7.80)</t>
+  </si>
+  <si>
+    <t>0.59 (0.59 to 0.59)</t>
+  </si>
+  <si>
+    <t>-0.02 (-0.02 to -0.02)</t>
+  </si>
+  <si>
+    <t>29.80 (29.71 to 29.89)</t>
+  </si>
+  <si>
+    <t>44.74 (44.42 to 45.07)</t>
+  </si>
+  <si>
+    <t>23.34 (23.27 to 23.40)</t>
+  </si>
+  <si>
+    <t>80.47 (80.29 to 80.65)</t>
+  </si>
+  <si>
+    <t>115.67 (115.39 to 115.96)</t>
+  </si>
+  <si>
+    <t>93.92 (93.71 to 94.12)</t>
+  </si>
+  <si>
+    <t>185.82 (185.18 to 186.45)</t>
+  </si>
+  <si>
+    <t>53.55 (53.33 to 53.76)</t>
+  </si>
+  <si>
+    <t>90.20 (89.95 to 90.44)</t>
+  </si>
+  <si>
+    <t>21.60 (21.39 to 21.82)</t>
+  </si>
+  <si>
+    <t>20.24 (19.87 to 20.62)</t>
+  </si>
+  <si>
+    <t>14.10 (14.07 to 14.13)</t>
+  </si>
+  <si>
+    <t>14.17 (14.09 to 14.26)</t>
+  </si>
+  <si>
+    <t>0.83 (0.83 to 0.84)</t>
+  </si>
+  <si>
+    <t>5.82 (5.81 to 5.83)</t>
+  </si>
+  <si>
+    <t>8.33 (8.33 to 8.34)</t>
+  </si>
+  <si>
+    <t>0.64 (0.64 to 0.64)</t>
+  </si>
+  <si>
+    <t>0.23 (0.23 to 0.23)</t>
+  </si>
+  <si>
+    <t>33.34 (33.23 to 33.44)</t>
+  </si>
+  <si>
+    <t>48.14 (47.83 to 48.45)</t>
+  </si>
+  <si>
+    <t>24.62 (24.55 to 24.68)</t>
+  </si>
+  <si>
+    <t>84.78 (84.59 to 84.96)</t>
+  </si>
+  <si>
+    <t>119.47 (119.18 to 119.77)</t>
+  </si>
+  <si>
+    <t>98.74 (98.48 to 99.00)</t>
+  </si>
+  <si>
+    <t>193.66 (193.01 to 194.31)</t>
+  </si>
+  <si>
+    <t>48.93 (48.72 to 49.14)</t>
+  </si>
+  <si>
+    <t>132.08 (131.68 to 132.48)</t>
+  </si>
+  <si>
+    <t>23.50 (23.27 to 23.72)</t>
+  </si>
+  <si>
+    <t>24.63 (24.26 to 25.01)</t>
+  </si>
+  <si>
+    <t>14.47 (14.44 to 14.50)</t>
+  </si>
+  <si>
+    <t>14.43 (14.35 to 14.51)</t>
+  </si>
+  <si>
+    <t>0.87 (0.87 to 0.87)</t>
+  </si>
+  <si>
+    <t>5.76 (5.75 to 5.78)</t>
+  </si>
+  <si>
+    <t>8.76 (8.76 to 8.76)</t>
+  </si>
+  <si>
+    <t>0.68 (0.68 to 0.68)</t>
+  </si>
+  <si>
+    <t>0.44 (0.43 to 0.44)</t>
+  </si>
+  <si>
+    <t>37.07 (36.96 to 37.19)</t>
+  </si>
+  <si>
+    <t>49.26 (48.98 to 49.53)</t>
+  </si>
+  <si>
+    <t>25.71 (25.65 to 25.77)</t>
+  </si>
+  <si>
+    <t>88.68 (88.51 to 88.84)</t>
+  </si>
+  <si>
+    <t>123.59 (123.30 to 123.88)</t>
+  </si>
+  <si>
+    <t>112.50 (111.89 to 113.10)</t>
+  </si>
+  <si>
+    <t>204.52 (203.79 to 205.24)</t>
+  </si>
+  <si>
+    <t>43.45 (43.28 to 43.63)</t>
+  </si>
+  <si>
+    <t>264.47 (261.29 to 267.65)</t>
+  </si>
+  <si>
+    <t>27.54 (27.23 to 27.85)</t>
+  </si>
+  <si>
+    <t>32.23 (31.76 to 32.70)</t>
+  </si>
+  <si>
+    <t>14.93 (14.90 to 14.95)</t>
+  </si>
+  <si>
+    <t>14.54 (14.46 to 14.61)</t>
+  </si>
+  <si>
+    <t>0.89 (0.89 to 0.90)</t>
+  </si>
+  <si>
+    <t>5.64 (5.63 to 5.65)</t>
+  </si>
+  <si>
+    <t>9.47 (9.46 to 9.48)</t>
+  </si>
+  <si>
+    <t>0.75 (0.75 to 0.75)</t>
+  </si>
+  <si>
+    <t>42.43 (42.30 to 42.56)</t>
+  </si>
+  <si>
+    <t>35.99 (35.75 to 36.23)</t>
+  </si>
+  <si>
+    <t>22.06 (22.00 to 22.12)</t>
+  </si>
+  <si>
+    <t>73.47 (73.32 to 73.61)</t>
+  </si>
+  <si>
+    <t>0.07 (0.07 to 0.07)</t>
+  </si>
+  <si>
+    <t>109.40 (109.16 to 109.63)</t>
+  </si>
+  <si>
+    <t>88.94 (88.79 to 89.10)</t>
+  </si>
+  <si>
+    <t>177.70 (177.13 to 178.28)</t>
+  </si>
+  <si>
+    <t>58.38 (58.14 to 58.63)</t>
+  </si>
+  <si>
+    <t>64.82 (64.38 to 65.26)</t>
+  </si>
+  <si>
+    <t>19.70 (19.48 to 19.92)</t>
+  </si>
+  <si>
+    <t>16.29 (16.00 to 16.59)</t>
+  </si>
+  <si>
+    <t>13.69 (13.66 to 13.72)</t>
+  </si>
+  <si>
+    <t>13.27 (13.19 to 13.34)</t>
+  </si>
+  <si>
+    <t>0.80 (0.79 to 0.80)</t>
+  </si>
+  <si>
+    <t>5.80 (5.78 to 5.81)</t>
+  </si>
+  <si>
+    <t>7.91 (7.90 to 7.91)</t>
+  </si>
+  <si>
+    <t>0.58 (0.58 to 0.58)</t>
+  </si>
+  <si>
+    <t>0.03 (0.03 to 0.03)</t>
+  </si>
+  <si>
+    <t>30.08 (29.98 to 30.17)</t>
+  </si>
+  <si>
+    <t>43.43 (43.13 to 43.73)</t>
+  </si>
+  <si>
+    <t>23.65 (23.58 to 23.71)</t>
+  </si>
+  <si>
+    <t>80.84 (80.68 to 81.00)</t>
+  </si>
+  <si>
+    <t>115.66 (115.38 to 115.94)</t>
+  </si>
+  <si>
+    <t>93.98 (93.77 to 94.19)</t>
+  </si>
+  <si>
+    <t>188.63 (188.01 to 189.25)</t>
+  </si>
+  <si>
+    <t>52.88 (52.65 to 53.10)</t>
+  </si>
+  <si>
+    <t>99.85 (99.13 to 100.57)</t>
+  </si>
+  <si>
+    <t>21.81 (21.62 to 22.00)</t>
+  </si>
+  <si>
+    <t>21.11 (20.82 to 21.41)</t>
+  </si>
+  <si>
+    <t>14.21 (14.18 to 14.24)</t>
+  </si>
+  <si>
+    <t>14.03 (13.96 to 14.11)</t>
+  </si>
+  <si>
+    <t>0.84 (0.83 to 0.84)</t>
+  </si>
+  <si>
+    <t>5.80 (5.79 to 5.82)</t>
+  </si>
+  <si>
+    <t>8.39 (8.39 to 8.40)</t>
+  </si>
+  <si>
+    <t>0.26 (0.26 to 0.27)</t>
+  </si>
+  <si>
+    <t>34.11 (33.99 to 34.23)</t>
+  </si>
+  <si>
+    <t>49.03 (48.73 to 49.34)</t>
+  </si>
+  <si>
+    <t>24.85 (24.78 to 24.91)</t>
+  </si>
+  <si>
+    <t>86.15 (85.99 to 86.31)</t>
+  </si>
+  <si>
+    <t>120.26 (119.97 to 120.55)</t>
+  </si>
+  <si>
+    <t>99.43 (99.13 to 99.73)</t>
+  </si>
+  <si>
+    <t>194.56 (193.90 to 195.23)</t>
+  </si>
+  <si>
+    <t>48.38 (48.17 to 48.59)</t>
+  </si>
+  <si>
+    <t>142.04 (140.96 to 143.11)</t>
+  </si>
+  <si>
+    <t>24.37 (24.11 to 24.63)</t>
+  </si>
+  <si>
+    <t>26.57 (26.11 to 27.03)</t>
+  </si>
+  <si>
+    <t>14.56 (14.53 to 14.59)</t>
+  </si>
+  <si>
+    <t>14.70 (14.62 to 14.78)</t>
+  </si>
+  <si>
+    <t>0.87 (0.87 to 0.88)</t>
+  </si>
+  <si>
+    <t>5.75 (5.73 to 5.76)</t>
+  </si>
+  <si>
+    <t>8.79 (8.78 to 8.79)</t>
+  </si>
+  <si>
+    <t>0.69 (0.69 to 0.69)</t>
+  </si>
+  <si>
+    <t>0.45 (0.45 to 0.45)</t>
+  </si>
+  <si>
+    <t>37.74 (37.61 to 37.87)</t>
+  </si>
+  <si>
+    <t>54.28 (54.00 to 54.57)</t>
+  </si>
+  <si>
+    <t>25.43 (25.36 to 25.49)</t>
+  </si>
+  <si>
+    <t>90.52 (90.36 to 90.69)</t>
+  </si>
+  <si>
+    <t>125.14 (124.83 to 125.44)</t>
+  </si>
+  <si>
+    <t>113.97 (113.34 to 114.61)</t>
+  </si>
+  <si>
+    <t>201.39 (200.63 to 202.15)</t>
+  </si>
+  <si>
+    <t>44.07 (43.88 to 44.26)</t>
+  </si>
+  <si>
+    <t>252.79 (249.16 to 256.41)</t>
+  </si>
+  <si>
+    <t>27.85 (27.53 to 28.17)</t>
+  </si>
+  <si>
+    <t>31.21 (30.76 to 31.67)</t>
+  </si>
+  <si>
+    <t>14.78 (14.75 to 14.81)</t>
+  </si>
+  <si>
+    <t>15.04 (14.96 to 15.13)</t>
+  </si>
+  <si>
+    <t>0.89 (0.89 to 0.89)</t>
+  </si>
+  <si>
+    <t>5.68 (5.66 to 5.69)</t>
+  </si>
+  <si>
+    <t>9.40 (9.38 to 9.41)</t>
+  </si>
+  <si>
+    <t>0.76 (0.76 to 0.77)</t>
+  </si>
+  <si>
+    <t>0.71 (0.70 to 0.71)</t>
+  </si>
+  <si>
+    <t>41.67 (41.53 to 41.80)</t>
+  </si>
+  <si>
+    <t>40.59 (40.31 to 40.88)</t>
+  </si>
+  <si>
+    <t>22.01 (21.95 to 22.06)</t>
+  </si>
+  <si>
+    <t>75.54 (75.37 to 75.71)</t>
+  </si>
+  <si>
+    <t>111.52 (111.25 to 111.78)</t>
+  </si>
+  <si>
+    <t>91.92 (91.67 to 92.16)</t>
+  </si>
+  <si>
+    <t>182.14 (181.53 to 182.75)</t>
+  </si>
+  <si>
+    <t>63.40 (63.17 to 63.63)</t>
+  </si>
+  <si>
+    <t>57.73 (57.46 to 57.99)</t>
+  </si>
+  <si>
+    <t>20.62 (20.41 to 20.82)</t>
+  </si>
+  <si>
+    <t>16.71 (16.48 to 16.94)</t>
+  </si>
+  <si>
+    <t>13.61 (13.58 to 13.63)</t>
+  </si>
+  <si>
+    <t>13.89 (13.81 to 13.97)</t>
+  </si>
+  <si>
+    <t>0.78 (0.78 to 0.79)</t>
+  </si>
+  <si>
+    <t>5.83 (5.82 to 5.85)</t>
+  </si>
+  <si>
+    <t>7.84 (7.84 to 7.85)</t>
+  </si>
+  <si>
+    <t>-0.05 (-0.05 to -0.05)</t>
+  </si>
+  <si>
+    <t>29.28 (29.19 to 29.36)</t>
+  </si>
+  <si>
+    <t>44.62 (44.30 to 44.94)</t>
+  </si>
+  <si>
+    <t>23.38 (23.31 to 23.44)</t>
+  </si>
+  <si>
+    <t>80.59 (80.41 to 80.78)</t>
+  </si>
+  <si>
+    <t>115.79 (115.51 to 116.08)</t>
+  </si>
+  <si>
+    <t>95.99 (95.66 to 96.32)</t>
+  </si>
+  <si>
+    <t>185.45 (184.82 to 186.07)</t>
+  </si>
+  <si>
+    <t>53.68 (53.50 to 53.86)</t>
+  </si>
+  <si>
+    <t>90.12 (89.77 to 90.46)</t>
+  </si>
+  <si>
+    <t>21.87 (21.63 to 22.11)</t>
+  </si>
+  <si>
+    <t>20.48 (20.10 to 20.85)</t>
+  </si>
+  <si>
+    <t>14.11 (14.09 to 14.14)</t>
+  </si>
+  <si>
+    <t>14.17 (14.09 to 14.25)</t>
+  </si>
+  <si>
+    <t>8.34 (8.34 to 8.35)</t>
+  </si>
+  <si>
+    <t>0.22 (0.22 to 0.22)</t>
+  </si>
+  <si>
+    <t>33.28 (33.18 to 33.38)</t>
+  </si>
+  <si>
+    <t>47.52 (47.20 to 47.83)</t>
+  </si>
+  <si>
+    <t>84.81 (84.63 to 85.00)</t>
+  </si>
+  <si>
+    <t>119.37 (119.07 to 119.66)</t>
+  </si>
+  <si>
+    <t>99.98 (99.60 to 100.36)</t>
+  </si>
+  <si>
+    <t>191.21 (190.52 to 191.90)</t>
+  </si>
+  <si>
+    <t>47.45 (47.30 to 47.60)</t>
+  </si>
+  <si>
+    <t>130.49 (130.01 to 130.98)</t>
+  </si>
+  <si>
+    <t>23.49 (23.28 to 23.71)</t>
+  </si>
+  <si>
+    <t>24.73 (24.35 to 25.11)</t>
+  </si>
+  <si>
+    <t>14.49 (14.46 to 14.52)</t>
+  </si>
+  <si>
+    <t>14.39 (14.31 to 14.47)</t>
+  </si>
+  <si>
+    <t>5.75 (5.74 to 5.77)</t>
+  </si>
+  <si>
+    <t>8.75 (8.74 to 8.75)</t>
+  </si>
+  <si>
+    <t>0.44 (0.44 to 0.44)</t>
+  </si>
+  <si>
+    <t>37.16 (37.05 to 37.26)</t>
+  </si>
+  <si>
+    <t>48.23 (47.95 to 48.52)</t>
+  </si>
+  <si>
+    <t>25.66 (25.59 to 25.72)</t>
+  </si>
+  <si>
+    <t>88.40 (88.23 to 88.57)</t>
+  </si>
+  <si>
+    <t>122.26 (121.97 to 122.56)</t>
+  </si>
+  <si>
+    <t>106.01 (105.51 to 106.52)</t>
+  </si>
+  <si>
+    <t>201.14 (200.43 to 201.84)</t>
+  </si>
+  <si>
+    <t>40.48 (40.34 to 40.62)</t>
+  </si>
+  <si>
+    <t>262.16 (258.99 to 265.33)</t>
+  </si>
+  <si>
+    <t>26.91 (26.61 to 27.22)</t>
+  </si>
+  <si>
+    <t>31.76 (31.28 to 32.23)</t>
+  </si>
+  <si>
+    <t>14.94 (14.91 to 14.96)</t>
+  </si>
+  <si>
+    <t>14.41 (14.33 to 14.48)</t>
+  </si>
+  <si>
+    <t>0.91 (0.90 to 0.91)</t>
+  </si>
+  <si>
+    <t>5.64 (5.62 to 5.65)</t>
+  </si>
+  <si>
+    <t>9.41 (9.40 to 9.42)</t>
+  </si>
+  <si>
+    <t>0.74 (0.74 to 0.74)</t>
+  </si>
+  <si>
+    <t>0.77 (0.77 to 0.78)</t>
+  </si>
+  <si>
+    <t>42.75 (42.63 to 42.88)</t>
+  </si>
+  <si>
+    <t>39.67 (39.39 to 39.95)</t>
+  </si>
+  <si>
+    <t>20.07 (20.05 to 20.10)</t>
+  </si>
+  <si>
+    <t>71.10 (70.98 to 71.21)</t>
+  </si>
+  <si>
+    <t>110.00 (109.74 to 110.26)</t>
+  </si>
+  <si>
+    <t>89.91 (89.73 to 90.09)</t>
+  </si>
+  <si>
+    <t>183.29 (182.68 to 183.90)</t>
+  </si>
+  <si>
+    <t>62.33 (62.09 to 62.57)</t>
+  </si>
+  <si>
+    <t>75.79 (75.17 to 76.42)</t>
+  </si>
+  <si>
+    <t>20.42 (20.20 to 20.64)</t>
+  </si>
+  <si>
+    <t>15.66 (15.46 to 15.86)</t>
+  </si>
+  <si>
+    <t>13.62 (13.59 to 13.65)</t>
+  </si>
+  <si>
+    <t>13.27 (13.20 to 13.35)</t>
+  </si>
+  <si>
+    <t>0.78 (0.78 to 0.78)</t>
+  </si>
+  <si>
+    <t>8.04 (8.03 to 8.05)</t>
+  </si>
+  <si>
+    <t>0.61 (0.60 to 0.61)</t>
+  </si>
+  <si>
+    <t>0.06 (0.05 to 0.06)</t>
+  </si>
+  <si>
+    <t>27.03 (26.99 to 27.07)</t>
+  </si>
+  <si>
+    <t>45.47 (45.15 to 45.80)</t>
+  </si>
+  <si>
+    <t>22.79 (22.77 to 22.82)</t>
+  </si>
+  <si>
+    <t>79.46 (79.35 to 79.57)</t>
+  </si>
+  <si>
+    <t>115.72 (115.44 to 116.01)</t>
+  </si>
+  <si>
+    <t>95.01 (94.74 to 95.28)</t>
+  </si>
+  <si>
+    <t>188.43 (187.77 to 189.10)</t>
+  </si>
+  <si>
+    <t>53.37 (53.19 to 53.55)</t>
+  </si>
+  <si>
+    <t>103.34 (102.40 to 104.28)</t>
+  </si>
+  <si>
+    <t>21.80 (21.55 to 22.05)</t>
+  </si>
+  <si>
+    <t>19.71 (19.36 to 20.05)</t>
+  </si>
+  <si>
+    <t>14.13 (14.10 to 14.16)</t>
+  </si>
+  <si>
+    <t>14.26 (14.17 to 14.34)</t>
+  </si>
+  <si>
+    <t>5.83 (5.81 to 5.84)</t>
+  </si>
+  <si>
+    <t>8.39 (8.38 to 8.40)</t>
+  </si>
+  <si>
+    <t>0.65 (0.65 to 0.65)</t>
+  </si>
+  <si>
+    <t>0.25 (0.25 to 0.25)</t>
+  </si>
+  <si>
+    <t>32.58 (32.55 to 32.60)</t>
+  </si>
+  <si>
+    <t>48.75 (48.43 to 49.06)</t>
+  </si>
+  <si>
+    <t>24.76 (24.73 to 24.79)</t>
+  </si>
+  <si>
+    <t>85.43 (85.31 to 85.54)</t>
+  </si>
+  <si>
+    <t>119.98 (119.69 to 120.27)</t>
+  </si>
+  <si>
+    <t>100.25 (99.89 to 100.62)</t>
+  </si>
+  <si>
+    <t>192.34 (191.64 to 193.03)</t>
+  </si>
+  <si>
+    <t>47.73 (47.57 to 47.89)</t>
+  </si>
+  <si>
+    <t>139.55 (138.08 to 141.01)</t>
+  </si>
+  <si>
+    <t>23.47 (23.25 to 23.69)</t>
+  </si>
+  <si>
+    <t>24.17 (23.83 to 24.52)</t>
+  </si>
+  <si>
+    <t>14.52 (14.49 to 14.54)</t>
+  </si>
+  <si>
+    <t>14.72 (14.64 to 14.80)</t>
+  </si>
+  <si>
+    <t>0.88 (0.87 to 0.88)</t>
+  </si>
+  <si>
+    <t>8.72 (8.71 to 8.73)</t>
+  </si>
+  <si>
+    <t>0.42 (0.42 to 0.43)</t>
+  </si>
+  <si>
+    <t>37.29 (37.27 to 37.32)</t>
+  </si>
+  <si>
+    <t>47.22 (46.93 to 47.51)</t>
+  </si>
+  <si>
+    <t>28.04 (27.98 to 28.10)</t>
+  </si>
+  <si>
+    <t>93.43 (93.27 to 93.59)</t>
+  </si>
+  <si>
+    <t>123.30 (123.02 to 123.58)</t>
+  </si>
+  <si>
+    <t>108.73 (108.19 to 109.26)</t>
+  </si>
+  <si>
+    <t>195.98 (195.25 to 196.71)</t>
+  </si>
+  <si>
+    <t>41.53 (41.38 to 41.68)</t>
+  </si>
+  <si>
+    <t>221.81 (218.44 to 225.18)</t>
+  </si>
+  <si>
+    <t>27.19 (26.90 to 27.48)</t>
+  </si>
+  <si>
+    <t>34.08 (33.57 to 34.59)</t>
+  </si>
+  <si>
+    <t>14.88 (14.85 to 14.91)</t>
+  </si>
+  <si>
+    <t>14.64 (14.56 to 14.71)</t>
+  </si>
+  <si>
+    <t>0.90 (0.89 to 0.90)</t>
+  </si>
+  <si>
+    <t>9.19 (9.18 to 9.20)</t>
+  </si>
+  <si>
+    <t>0.72 (0.72 to 0.72)</t>
+  </si>
+  <si>
+    <t>0.66 (0.65 to 0.66)</t>
+  </si>
+  <si>
+    <t>45.58 (45.48 to 45.68)</t>
   </si>
 </sst>
 </file>
@@ -5706,10 +6687,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5994,7 +6975,7 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:R2"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6007,40 +6988,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
@@ -9952,52 +10933,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DAF29F-7A7F-4147-B016-90C1DD9DC7A5}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59:R60"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
       <c r="C2" s="2" t="s">
         <v>82</v>
       </c>
@@ -12773,430 +13754,1076 @@
     </row>
     <row r="62" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
+        <v>1836</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>1873</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>1926</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>1945</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>1962</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>1980</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>1998</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>2015</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>2030</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>2045</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>2063</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>2080</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>2097</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>2113</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5"/>
-      <c r="R63" s="5"/>
+        <v>1837</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>1874</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>1910</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>1927</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>1946</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>1963</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>1981</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>2016</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>2046</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>2064</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>2081</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>2098</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>2114</v>
+      </c>
     </row>
     <row r="64" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
+        <v>1838</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>1875</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>1911</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>1947</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>1982</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>2000</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>2017</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>2031</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>2047</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>2065</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>2082</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>2099</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>2115</v>
+      </c>
     </row>
     <row r="65" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
+        <v>1839</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>1820</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>1820</v>
+      </c>
     </row>
     <row r="66" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="5"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
+        <v>1840</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>1894</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>1948</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>1965</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>1983</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>2001</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>2018</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>2032</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>2048</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>2066</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>2083</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>2100</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>2116</v>
+      </c>
     </row>
     <row r="67" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
+        <v>1841</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>1877</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>1895</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>1913</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>1949</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>1966</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>1984</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>2002</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>2019</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>2033</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>2049</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>2067</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>2084</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>2101</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>2117</v>
+      </c>
     </row>
     <row r="68" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
+        <v>1842</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>1878</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>1914</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>1932</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>1950</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>1967</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>1985</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>2003</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>2020</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>2034</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>2050</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>2068</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>2085</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>2102</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>2118</v>
+      </c>
     </row>
     <row r="69" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
+        <v>1843</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>1879</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>1933</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1968</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>1986</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>2004</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>2021</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>2035</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>2051</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>2069</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>2086</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>2103</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>2119</v>
+      </c>
     </row>
     <row r="70" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="5"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
+        <v>1844</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>1898</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>1916</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>1952</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>1969</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>1987</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>2005</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>2022</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>2036</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>2052</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>2070</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>2087</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>2104</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>2120</v>
+      </c>
     </row>
     <row r="71" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
-      <c r="L71" s="5"/>
-      <c r="M71" s="5"/>
-      <c r="N71" s="5"/>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
+        <v>1845</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>1881</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>1917</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>1935</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>1953</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>1970</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>1988</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>2006</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>2023</v>
+      </c>
+      <c r="M71" s="5" t="s">
+        <v>2037</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>2053</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>2071</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>2088</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>2105</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>2121</v>
+      </c>
     </row>
     <row r="72" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="5"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="5"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="5"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="5"/>
-      <c r="R72" s="5"/>
+        <v>1846</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>1882</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>1936</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>1954</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>1971</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>1989</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>2007</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>2024</v>
+      </c>
+      <c r="M72" s="5" t="s">
+        <v>2038</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>2054</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>2072</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>2089</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>2106</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>2122</v>
+      </c>
     </row>
     <row r="73" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="5"/>
-      <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
+        <v>1847</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>1883</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>1901</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>1919</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>1955</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>1972</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>1990</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>2008</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>2025</v>
+      </c>
+      <c r="M73" s="5" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>2055</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>2073</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>2090</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>2107</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>2123</v>
+      </c>
     </row>
     <row r="74" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
+        <v>1848</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1829</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>1866</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>1920</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>1938</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>1956</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>1973</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>1991</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>2009</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>2026</v>
+      </c>
+      <c r="M74" s="5" t="s">
+        <v>2040</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>2056</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>2074</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>2091</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>2108</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>2124</v>
+      </c>
     </row>
     <row r="75" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
+        <v>1849</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>1903</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>1939</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>2010</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>1885</v>
+      </c>
+      <c r="M75" s="5" t="s">
+        <v>1974</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>2057</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>2075</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>1957</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>2109</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>2125</v>
+      </c>
     </row>
     <row r="76" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
+        <v>1850</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>1886</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>1922</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>1958</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>1993</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>2011</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>2041</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>2058</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>1868</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>2092</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>1904</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>2058</v>
+      </c>
     </row>
     <row r="77" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
+        <v>1851</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>1887</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>1923</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>1959</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>2012</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>2027</v>
+      </c>
+      <c r="M77" s="5" t="s">
+        <v>2042</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>2059</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>2076</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>2093</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>2110</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>2126</v>
+      </c>
     </row>
     <row r="78" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
+        <v>1852</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>1833</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>1942</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>1977</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>1995</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>1870</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>1888</v>
+      </c>
+      <c r="M78" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>2060</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>2077</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>2094</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>1906</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>2127</v>
+      </c>
     </row>
     <row r="79" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
-      <c r="L79" s="5"/>
-      <c r="M79" s="5"/>
-      <c r="N79" s="5"/>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
+        <v>1853</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>1889</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>1907</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>1943</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>1960</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>1978</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>2013</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M79" s="5" t="s">
+        <v>2043</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>2061</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>2078</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>2111</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>2128</v>
+      </c>
     </row>
     <row r="80" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="5"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="5"/>
-      <c r="R80" s="5"/>
+        <v>1854</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>1872</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>1890</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>1925</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>1961</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>1979</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>1997</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>2014</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>2029</v>
+      </c>
+      <c r="M80" s="5" t="s">
+        <v>2044</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>2062</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>2079</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>2096</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>2112</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>2129</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="O1:R1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/table/table.xlsx
+++ b/table/table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2_cvd_tyg\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071479D3-EFB5-45F5-9FFC-22958A3E2AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2F7D5E-AE45-4853-8CFF-7C1F1FC0057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="2773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3715" uniqueCount="2870">
   <si>
     <t>Characteristic</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8540,6 +8540,298 @@
   </si>
   <si>
     <t>36.26 (34.95 to 37.56)</t>
+  </si>
+  <si>
+    <t>8.38 (8.37 to 8.39)</t>
+  </si>
+  <si>
+    <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.71 (8.71 to 8.72)</t>
+  </si>
+  <si>
+    <t>8.71 (8.70 to 8.72)</t>
+  </si>
+  <si>
+    <t>8.75 (8.74 to 8.76)</t>
+  </si>
+  <si>
+    <t>8.57 (8.56 to 8.58)</t>
+  </si>
+  <si>
+    <t>8.66 (8.64 to 8.68)</t>
+  </si>
+  <si>
+    <t>8.74 (8.73 to 8.76)</t>
+  </si>
+  <si>
+    <t>8.75 (8.73 to 8.76)</t>
+  </si>
+  <si>
+    <t>8.66 (8.65 to 8.67)</t>
+  </si>
+  <si>
+    <t>8.49 (8.49 to 8.50)</t>
+  </si>
+  <si>
+    <t>8.67 (8.65 to 8.68)</t>
+  </si>
+  <si>
+    <t>8.60 (8.59 to 8.61)</t>
+  </si>
+  <si>
+    <t>8.55 (8.54 to 8.56)</t>
+  </si>
+  <si>
+    <t>8.08 (8.06 to 8.10)</t>
+  </si>
+  <si>
+    <t>8.34 (8.33 to 8.35)</t>
+  </si>
+  <si>
+    <t>8.64 (8.63 to 8.65)</t>
+  </si>
+  <si>
+    <t>8.88 (8.87 to 8.89)</t>
+  </si>
+  <si>
+    <t>8.65 (8.65 to 8.66)</t>
+  </si>
+  <si>
+    <t>8.37 (8.35 to 8.38)</t>
+  </si>
+  <si>
+    <t>8.49 (8.48 to 8.50)</t>
+  </si>
+  <si>
+    <t>8.61 (8.60 to 8.62)</t>
+  </si>
+  <si>
+    <t>8.69 (8.68 to 8.71)</t>
+  </si>
+  <si>
+    <t>8.51 (8.50 to 8.52)</t>
+  </si>
+  <si>
+    <t>8.79 (8.78 to 8.81)</t>
+  </si>
+  <si>
+    <t>8.50 (8.49 to 8.51)</t>
+  </si>
+  <si>
+    <t>8.80 (8.79 to 8.82)</t>
+  </si>
+  <si>
+    <t>8.53 (8.52 to 8.53)</t>
+  </si>
+  <si>
+    <t>8.86 (8.85 to 8.88)</t>
+  </si>
+  <si>
+    <t>8.54 (8.53 to 8.55)</t>
+  </si>
+  <si>
+    <t>8.88 (8.87 to 8.90)</t>
+  </si>
+  <si>
+    <t>8.58 (8.57 to 8.59)</t>
+  </si>
+  <si>
+    <t>8.79 (8.74 to 8.85)</t>
+  </si>
+  <si>
+    <t>0.61 (0.61 to 0.61)</t>
+  </si>
+  <si>
+    <t>0.72 (0.71 to 0.72)</t>
+  </si>
+  <si>
+    <t>0.27 (0.27 to 0.28)</t>
+  </si>
+  <si>
+    <t>0.39 (0.39 to 0.40)</t>
+  </si>
+  <si>
+    <t>0.39 (0.38 to 0.40)</t>
+  </si>
+  <si>
+    <t>0.44 (0.44 to 0.44)</t>
+  </si>
+  <si>
+    <t>0.41 (0.40 to 0.41)</t>
+  </si>
+  <si>
+    <t>0.09 (0.08 to 0.10)</t>
+  </si>
+  <si>
+    <t>0.22 (0.22 to 0.23)</t>
+  </si>
+  <si>
+    <t>0.49 (0.49 to 0.50)</t>
+  </si>
+  <si>
+    <t>0.37 (0.37 to 0.37)</t>
+  </si>
+  <si>
+    <t>0.26 (0.26 to 0.27)</t>
+  </si>
+  <si>
+    <t>0.36 (0.36 to 0.37)</t>
+  </si>
+  <si>
+    <t>0.32 (0.32 to 0.33)</t>
+  </si>
+  <si>
+    <t>0.41 (0.41 to 0.42)</t>
+  </si>
+  <si>
+    <t>0.30 (0.30 to 0.30)</t>
+  </si>
+  <si>
+    <t>0.47 (0.46 to 0.47)</t>
+  </si>
+  <si>
+    <t>0.33 (0.33 to 0.33)</t>
+  </si>
+  <si>
+    <t>0.45 (0.44 to 0.45)</t>
+  </si>
+  <si>
+    <t>0.43 (0.41 to 0.45)</t>
+  </si>
+  <si>
+    <t>0.44 (0.41 to 0.46)</t>
+  </si>
+  <si>
+    <t>0.42 (0.39 to 0.44)</t>
+  </si>
+  <si>
+    <t>34.23 (34.09 to 34.36)</t>
+  </si>
+  <si>
+    <t>36.48 (36.39 to 36.57)</t>
+  </si>
+  <si>
+    <t>36.50 (36.38 to 36.63)</t>
+  </si>
+  <si>
+    <t>37.51 (37.41 to 37.61)</t>
+  </si>
+  <si>
+    <t>33.33 (33.23 to 33.43)</t>
+  </si>
+  <si>
+    <t>35.43 (35.35 to 35.52)</t>
+  </si>
+  <si>
+    <t>36.48 (36.28 to 36.67)</t>
+  </si>
+  <si>
+    <t>37.00 (36.83 to 37.17)</t>
+  </si>
+  <si>
+    <t>36.93 (36.75 to 37.12)</t>
+  </si>
+  <si>
+    <t>36.15 (36.01 to 36.29)</t>
+  </si>
+  <si>
+    <t>34.90 (34.79 to 35.00)</t>
+  </si>
+  <si>
+    <t>36.12 (35.93 to 36.32)</t>
+  </si>
+  <si>
+    <t>35.91 (35.76 to 36.07)</t>
+  </si>
+  <si>
+    <t>35.58 (35.45 to 35.72)</t>
+  </si>
+  <si>
+    <t>35.18 (35.04 to 35.31)</t>
+  </si>
+  <si>
+    <t>23.98 (23.89 to 24.07)</t>
+  </si>
+  <si>
+    <t>30.15 (30.10 to 30.21)</t>
+  </si>
+  <si>
+    <t>35.85 (35.78 to 35.91)</t>
+  </si>
+  <si>
+    <t>42.99 (42.89 to 43.08)</t>
+  </si>
+  <si>
+    <t>36.13 (36.05 to 36.20)</t>
+  </si>
+  <si>
+    <t>33.96 (33.77 to 34.14)</t>
+  </si>
+  <si>
+    <t>34.76 (34.64 to 34.87)</t>
+  </si>
+  <si>
+    <t>35.71 (35.61 to 35.82)</t>
+  </si>
+  <si>
+    <t>37.05 (36.85 to 37.24)</t>
+  </si>
+  <si>
+    <t>35.82 (35.68 to 35.96)</t>
+  </si>
+  <si>
+    <t>35.38 (35.29 to 35.48)</t>
+  </si>
+  <si>
+    <t>36.07 (35.89 to 36.25)</t>
+  </si>
+  <si>
+    <t>35.35 (35.23 to 35.47)</t>
+  </si>
+  <si>
+    <t>35.27 (35.15 to 35.39)</t>
+  </si>
+  <si>
+    <t>36.44 (36.30 to 36.58)</t>
+  </si>
+  <si>
+    <t>34.96 (34.87 to 35.05)</t>
+  </si>
+  <si>
+    <t>37.32 (37.18 to 37.46)</t>
+  </si>
+  <si>
+    <t>34.87 (34.79 to 34.95)</t>
+  </si>
+  <si>
+    <t>39.18 (39.02 to 39.33)</t>
+  </si>
+  <si>
+    <t>35.18 (35.10 to 35.26)</t>
+  </si>
+  <si>
+    <t>38.53 (38.35 to 38.70)</t>
+  </si>
+  <si>
+    <t>35.57 (35.49 to 35.64)</t>
+  </si>
+  <si>
+    <t>38.03 (37.60 to 38.47)</t>
+  </si>
+  <si>
+    <t>35.58 (35.50 to 35.66)</t>
+  </si>
+  <si>
+    <t>38.66 (38.00 to 39.33)</t>
+  </si>
+  <si>
+    <t>35.57 (35.49 to 35.65)</t>
+  </si>
+  <si>
+    <t>38.00 (37.51 to 38.48)</t>
   </si>
 </sst>
 </file>
@@ -8641,9 +8933,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8655,6 +8944,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8938,7 +9230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G2" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
@@ -8962,40 +9254,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>1261</v>
       </c>
@@ -12908,7 +13200,7 @@
   <dimension ref="A1:R80"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+      <selection activeCell="B77" sqref="B77:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12919,40 +13211,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="2" t="s">
         <v>1261</v>
       </c>
@@ -16806,47 +17098,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB9B2C5-BB44-40E3-A705-B2F1C5C8B440}">
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H6"/>
+      <selection activeCell="C226" sqref="C226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="34" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="22.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -16859,8 +17155,9 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -16868,25 +17165,28 @@
         <v>55</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -16903,16 +17203,19 @@
         <v>238</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -16920,25 +17223,28 @@
         <v>83</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -16946,43 +17252,47 @@
         <v>84</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="5"/>
@@ -16991,8 +17301,9 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -17000,25 +17311,28 @@
         <v>55</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>2175</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>2176</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>2177</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>2178</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>2179</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>2180</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -17029,22 +17343,25 @@
         <v>2364</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>2364</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>2365</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>2364</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>2364</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>2364</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>2366</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -17052,25 +17369,28 @@
         <v>83</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>2808</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>2397</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>2398</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>2397</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>2399</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>2400</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -17078,29 +17398,32 @@
         <v>84</v>
       </c>
       <c r="C12" s="5" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>2526</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>2527</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>2528</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>2529</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>2530</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>2531</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C13" s="5"/>
@@ -17109,8 +17432,9 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -17118,25 +17442,28 @@
         <v>55</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>2181</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>2184</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>2185</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>2186</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -17147,22 +17474,25 @@
         <v>268</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>2368</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>2369</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>2370</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -17170,25 +17500,28 @@
         <v>83</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>2401</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>2402</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>2403</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>2403</v>
       </c>
       <c r="G16" s="5" t="s">
+        <v>2403</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>2404</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -17196,29 +17529,32 @@
         <v>84</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>2532</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>2533</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>2534</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>2535</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>2536</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>2537</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C18" s="5"/>
@@ -17227,8 +17563,9 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -17236,25 +17573,28 @@
         <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>2187</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>2188</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>2189</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>2190</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>2191</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>2192</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -17262,25 +17602,28 @@
         <v>56</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>2371</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>2372</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>2372</v>
       </c>
       <c r="F20" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>2373</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -17288,25 +17631,28 @@
         <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>2405</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>2406</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>2402</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>2407</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -17314,43 +17660,47 @@
         <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>2538</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>2539</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>2540</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>2541</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>2542</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>2543</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>23</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C23" s="5"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="5"/>
@@ -17359,8 +17709,9 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -17368,25 +17719,28 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
+        <v>2777</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>2193</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>2182</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>2194</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>2195</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>2196</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>2197</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -17394,25 +17748,28 @@
         <v>56</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>2368</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>2369</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>2370</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>2374</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>2374</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="5" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -17420,25 +17777,28 @@
         <v>83</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>2409</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>2410</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>2409</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>2409</v>
       </c>
       <c r="G27" s="5" t="s">
+        <v>2409</v>
+      </c>
+      <c r="H27" s="5" t="s">
         <v>2411</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>2412</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -17446,29 +17806,32 @@
         <v>84</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>2831</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>2544</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>2545</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>2546</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>2547</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>2548</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>2549</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="5"/>
@@ -17477,8 +17840,9 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -17486,25 +17850,28 @@
         <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>2198</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>2199</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>2199</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>2200</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>2201</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>2202</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -17515,22 +17882,25 @@
         <v>265</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>2366</v>
+        <v>265</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>2366</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>2366</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>2375</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>2376</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -17538,25 +17908,28 @@
         <v>83</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>2144</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>2413</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>2414</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>2415</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>2416</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>2417</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="I32" s="5" t="s">
         <v>2418</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -17564,43 +17937,47 @@
         <v>84</v>
       </c>
       <c r="C33" s="5" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>2550</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>2551</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>2552</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>2553</v>
       </c>
-      <c r="G33" s="5" t="s">
+      <c r="H33" s="5" t="s">
         <v>2554</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="I33" s="5" t="s">
         <v>2555</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="5"/>
@@ -17609,8 +17986,9 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -17618,25 +17996,28 @@
         <v>55</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>2203</v>
+        <v>2778</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>2203</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>2204</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="G36" s="5" t="s">
         <v>2205</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>2206</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="I36" s="5" t="s">
         <v>2207</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -17644,25 +18025,28 @@
         <v>56</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="H37" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="I37" s="5" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -17670,25 +18054,28 @@
         <v>83</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>2419</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>2420</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>2421</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="I38" s="5" t="s">
         <v>2422</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -17696,29 +18083,32 @@
         <v>84</v>
       </c>
       <c r="C39" s="5" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>2556</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="E39" s="5" t="s">
         <v>2557</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>2558</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>2559</v>
       </c>
-      <c r="G39" s="5" t="s">
+      <c r="H39" s="5" t="s">
         <v>2560</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="I39" s="5" t="s">
         <v>2561</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="5"/>
@@ -17727,8 +18117,9 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -17736,25 +18127,28 @@
         <v>55</v>
       </c>
       <c r="C41" s="5" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="E41" s="5" t="s">
         <v>2209</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>2210</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="5" t="s">
         <v>2211</v>
       </c>
-      <c r="G41" s="5" t="s">
+      <c r="H41" s="5" t="s">
         <v>2212</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="I41" s="5" t="s">
         <v>2213</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -17762,25 +18156,28 @@
         <v>56</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>2368</v>
+        <v>268</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>2368</v>
       </c>
       <c r="E42" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>2369</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="G42" s="5" t="s">
         <v>2368</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>2379</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>2379</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" s="5" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -17788,25 +18185,28 @@
         <v>83</v>
       </c>
       <c r="C43" s="5" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>2423</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="E43" s="5" t="s">
         <v>2424</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="F43" s="5" t="s">
         <v>2412</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="G43" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="G43" s="5" t="s">
+      <c r="H43" s="5" t="s">
         <v>2426</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="I43" s="5" t="s">
         <v>2427</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -17814,43 +18214,47 @@
         <v>84</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>2834</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>2562</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="E44" s="5" t="s">
         <v>2563</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>2564</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="G44" s="5" t="s">
         <v>2565</v>
       </c>
-      <c r="G44" s="5" t="s">
+      <c r="H44" s="5" t="s">
         <v>2566</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="I44" s="5" t="s">
         <v>2567</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>45</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C45" s="5"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>37</v>
       </c>
       <c r="C46" s="5"/>
@@ -17859,8 +18263,9 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -17868,25 +18273,28 @@
         <v>55</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>2214</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>2215</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>2216</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="G47" s="5" t="s">
         <v>2217</v>
       </c>
-      <c r="G47" s="5" t="s">
+      <c r="H47" s="5" t="s">
         <v>2218</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>2219</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -17894,25 +18302,28 @@
         <v>56</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>2380</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="E48" s="5" t="s">
         <v>2381</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="G48" s="5" t="s">
         <v>2372</v>
       </c>
-      <c r="G48" s="5" t="s">
+      <c r="H48" s="5" t="s">
         <v>2380</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="I48" s="5" t="s">
         <v>2371</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -17920,25 +18331,28 @@
         <v>83</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>2428</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>2429</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>2430</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="G49" s="5" t="s">
         <v>2431</v>
       </c>
-      <c r="G49" s="5" t="s">
+      <c r="H49" s="5" t="s">
         <v>2432</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="I49" s="5" t="s">
         <v>2433</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -17946,29 +18360,32 @@
         <v>84</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>2568</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="E50" s="5" t="s">
         <v>2569</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="5" t="s">
         <v>2570</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="G50" s="5" t="s">
         <v>2571</v>
       </c>
-      <c r="G50" s="5" t="s">
+      <c r="H50" s="5" t="s">
         <v>2572</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="I50" s="5" t="s">
         <v>2573</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>51</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="5"/>
@@ -17977,8 +18394,9 @@
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -17986,25 +18404,28 @@
         <v>55</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>2781</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>2217</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>2220</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="F52" s="5" t="s">
         <v>2221</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>2222</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="H52" s="5" t="s">
         <v>2223</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>2224</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -18012,25 +18433,28 @@
         <v>56</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>2382</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>333</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>2370</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>2370</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>2370</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>2382</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="H53" s="5" t="s">
         <v>2371</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="I53" s="5" t="s">
         <v>2372</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -18038,25 +18462,28 @@
         <v>83</v>
       </c>
       <c r="C54" s="5" t="s">
+        <v>2402</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>2434</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>2435</v>
       </c>
-      <c r="E54" s="5" t="s">
+      <c r="F54" s="5" t="s">
         <v>2436</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="G54" s="5" t="s">
         <v>2429</v>
       </c>
-      <c r="G54" s="5" t="s">
+      <c r="H54" s="5" t="s">
         <v>2437</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="I54" s="5" t="s">
         <v>2438</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -18064,29 +18491,32 @@
         <v>84</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>2836</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>2574</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="E55" s="5" t="s">
         <v>2575</v>
       </c>
-      <c r="E55" s="5" t="s">
+      <c r="F55" s="5" t="s">
         <v>2576</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="G55" s="5" t="s">
         <v>2577</v>
       </c>
-      <c r="G55" s="5" t="s">
+      <c r="H55" s="5" t="s">
         <v>2578</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="I55" s="5" t="s">
         <v>2579</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>56</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C56" s="5"/>
@@ -18095,8 +18525,9 @@
       <c r="F56" s="5"/>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I56" s="5"/>
+    </row>
+    <row r="57" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -18104,25 +18535,28 @@
         <v>55</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>2225</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="E57" s="5" t="s">
         <v>2226</v>
       </c>
-      <c r="E57" s="5" t="s">
+      <c r="F57" s="5" t="s">
         <v>2227</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="G57" s="5" t="s">
         <v>2186</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="H57" s="5" t="s">
         <v>2228</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="I57" s="5" t="s">
         <v>2211</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -18130,25 +18564,28 @@
         <v>56</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>2370</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="E58" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="5" t="s">
         <v>2369</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>2379</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>2379</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I58" s="5" t="s">
+        <v>2379</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -18156,25 +18593,28 @@
         <v>83</v>
       </c>
       <c r="C59" s="5" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>2436</v>
-      </c>
-      <c r="D59" s="5" t="s">
-        <v>303</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>303</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>2439</v>
       </c>
-      <c r="G59" s="5" t="s">
+      <c r="H59" s="5" t="s">
         <v>2440</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="I59" s="5" t="s">
         <v>2441</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -18182,29 +18622,32 @@
         <v>84</v>
       </c>
       <c r="C60" s="5" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>2580</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="E60" s="5" t="s">
         <v>2581</v>
       </c>
-      <c r="E60" s="5" t="s">
+      <c r="F60" s="5" t="s">
         <v>2582</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="G60" s="5" t="s">
         <v>2583</v>
       </c>
-      <c r="G60" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>2584</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="I60" s="5" t="s">
         <v>2585</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>61</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C61" s="5"/>
@@ -18213,8 +18656,9 @@
       <c r="F61" s="5"/>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I61" s="5"/>
+    </row>
+    <row r="62" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -18222,25 +18666,28 @@
         <v>55</v>
       </c>
       <c r="C62" s="5" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>2229</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="E62" s="5" t="s">
         <v>2230</v>
       </c>
-      <c r="E62" s="5" t="s">
+      <c r="F62" s="5" t="s">
         <v>2231</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="G62" s="5" t="s">
         <v>2232</v>
       </c>
-      <c r="G62" s="5" t="s">
+      <c r="H62" s="5" t="s">
         <v>2233</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="I62" s="5" t="s">
         <v>2234</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -18248,25 +18695,28 @@
         <v>56</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>2383</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>265</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>265</v>
       </c>
       <c r="F63" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>2375</v>
       </c>
-      <c r="G63" s="5" t="s">
+      <c r="H63" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="I63" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -18274,25 +18724,28 @@
         <v>83</v>
       </c>
       <c r="C64" s="5" t="s">
+        <v>2487</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>2420</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="E64" s="5" t="s">
         <v>2421</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="F64" s="5" t="s">
         <v>2442</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="G64" s="5" t="s">
         <v>2421</v>
       </c>
-      <c r="G64" s="5" t="s">
+      <c r="H64" s="5" t="s">
         <v>2443</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="I64" s="5" t="s">
         <v>2444</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -18300,43 +18753,47 @@
         <v>84</v>
       </c>
       <c r="C65" s="5" t="s">
+        <v>2838</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>2586</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="E65" s="5" t="s">
         <v>2587</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="F65" s="5" t="s">
         <v>2588</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="G65" s="5" t="s">
         <v>2589</v>
       </c>
-      <c r="G65" s="5" t="s">
+      <c r="H65" s="5" t="s">
         <v>2590</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="I65" s="5" t="s">
         <v>2591</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>66</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C66" s="5"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I66" s="5"/>
+    </row>
+    <row r="67" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>67</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>33</v>
       </c>
       <c r="C67" s="5"/>
@@ -18345,8 +18802,9 @@
       <c r="F67" s="5"/>
       <c r="G67" s="5"/>
       <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I67" s="5"/>
+    </row>
+    <row r="68" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -18354,25 +18812,28 @@
         <v>55</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>2235</v>
+        <v>2784</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>2235</v>
       </c>
       <c r="E68" s="5" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>2236</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="G68" s="5" t="s">
         <v>2237</v>
       </c>
-      <c r="G68" s="5" t="s">
+      <c r="H68" s="5" t="s">
         <v>2238</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="I68" s="5" t="s">
         <v>2239</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -18380,25 +18841,28 @@
         <v>56</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>2379</v>
+        <v>2370</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>2379</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>2370</v>
+        <v>2379</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>2370</v>
       </c>
       <c r="G69" s="5" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H69" s="5" t="s">
         <v>2382</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="I69" s="5" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -18406,25 +18870,28 @@
         <v>83</v>
       </c>
       <c r="C70" s="5" t="s">
+        <v>2467</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>2412</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="E70" s="5" t="s">
         <v>2424</v>
       </c>
-      <c r="E70" s="5" t="s">
+      <c r="F70" s="5" t="s">
         <v>2429</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="G70" s="5" t="s">
         <v>2445</v>
       </c>
-      <c r="G70" s="5" t="s">
+      <c r="H70" s="5" t="s">
         <v>2426</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="I70" s="5" t="s">
         <v>2446</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -18432,29 +18899,32 @@
         <v>84</v>
       </c>
       <c r="C71" s="5" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>2592</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="E71" s="5" t="s">
         <v>2593</v>
       </c>
-      <c r="E71" s="5" t="s">
+      <c r="F71" s="5" t="s">
         <v>2594</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="G71" s="5" t="s">
         <v>2595</v>
       </c>
-      <c r="G71" s="5" t="s">
+      <c r="H71" s="5" t="s">
         <v>2596</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="I71" s="5" t="s">
         <v>2597</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>72</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C72" s="5"/>
@@ -18463,8 +18933,9 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I72" s="5"/>
+    </row>
+    <row r="73" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -18472,25 +18943,28 @@
         <v>55</v>
       </c>
       <c r="C73" s="5" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>2240</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>2241</v>
       </c>
-      <c r="E73" s="5" t="s">
+      <c r="F73" s="5" t="s">
         <v>2242</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="G73" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="G73" s="5" t="s">
+      <c r="H73" s="5" t="s">
         <v>2243</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="I73" s="5" t="s">
         <v>2244</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -18498,25 +18972,28 @@
         <v>56</v>
       </c>
       <c r="C74" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>2378</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>238</v>
       </c>
       <c r="F74" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>302</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>2368</v>
       </c>
       <c r="H74" s="5" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I74" s="5" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -18524,25 +19001,28 @@
         <v>83</v>
       </c>
       <c r="C75" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>2432</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="E75" s="5" t="s">
         <v>2440</v>
       </c>
-      <c r="E75" s="5" t="s">
+      <c r="F75" s="5" t="s">
         <v>2447</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="G75" s="5" t="s">
         <v>2440</v>
       </c>
-      <c r="G75" s="5" t="s">
+      <c r="H75" s="5" t="s">
         <v>2448</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="I75" s="5" t="s">
         <v>2441</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -18550,29 +19030,32 @@
         <v>84</v>
       </c>
       <c r="C76" s="5" t="s">
+        <v>2840</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>2598</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="E76" s="5" t="s">
         <v>2599</v>
       </c>
-      <c r="E76" s="5" t="s">
+      <c r="F76" s="5" t="s">
         <v>2600</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="G76" s="5" t="s">
         <v>2601</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="H76" s="5" t="s">
         <v>2602</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="I76" s="5" t="s">
         <v>2603</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>77</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C77" s="5"/>
@@ -18581,8 +19064,9 @@
       <c r="F77" s="5"/>
       <c r="G77" s="5"/>
       <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I77" s="5"/>
+    </row>
+    <row r="78" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -18590,25 +19074,28 @@
         <v>55</v>
       </c>
       <c r="C78" s="5" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>2234</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="E78" s="5" t="s">
         <v>2245</v>
       </c>
-      <c r="E78" s="5" t="s">
+      <c r="F78" s="5" t="s">
         <v>2207</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="G78" s="5" t="s">
         <v>2246</v>
       </c>
-      <c r="G78" s="5" t="s">
+      <c r="H78" s="5" t="s">
         <v>2207</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="I78" s="5" t="s">
         <v>2247</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -18616,25 +19103,28 @@
         <v>56</v>
       </c>
       <c r="C79" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="E79" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E79" s="5" t="s">
+      <c r="F79" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="G79" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="H79" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="I79" s="5" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -18642,10 +19132,10 @@
         <v>83</v>
       </c>
       <c r="C80" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>2419</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="E80" s="5" t="s">
         <v>305</v>
@@ -18654,13 +19144,16 @@
         <v>305</v>
       </c>
       <c r="G80" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H80" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="I80" s="5" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -18668,29 +19161,32 @@
         <v>84</v>
       </c>
       <c r="C81" s="5" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>2604</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="E81" s="5" t="s">
         <v>2605</v>
       </c>
-      <c r="E81" s="5" t="s">
+      <c r="F81" s="5" t="s">
         <v>2606</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="G81" s="5" t="s">
         <v>2607</v>
       </c>
-      <c r="G81" s="5" t="s">
+      <c r="H81" s="5" t="s">
         <v>2608</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="I81" s="5" t="s">
         <v>2609</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C82" s="5"/>
@@ -18699,8 +19195,9 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I82" s="5"/>
+    </row>
+    <row r="83" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -18708,25 +19205,28 @@
         <v>55</v>
       </c>
       <c r="C83" s="5" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>2248</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="E83" s="5" t="s">
         <v>2245</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="F83" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="G83" s="5" t="s">
         <v>2250</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="H83" s="5" t="s">
         <v>2251</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="I83" s="5" t="s">
         <v>2252</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -18734,7 +19234,7 @@
         <v>56</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>2375</v>
+        <v>2377</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>2375</v>
@@ -18743,16 +19243,19 @@
         <v>2375</v>
       </c>
       <c r="F84" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>2377</v>
-      </c>
-      <c r="G84" s="5" t="s">
-        <v>301</v>
       </c>
       <c r="H84" s="5" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I84" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -18760,25 +19263,28 @@
         <v>83</v>
       </c>
       <c r="C85" s="5" t="s">
+        <v>2507</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="E85" s="5" t="s">
         <v>2447</v>
       </c>
-      <c r="E85" s="5" t="s">
+      <c r="F85" s="5" t="s">
         <v>2449</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="G85" s="5" t="s">
         <v>2448</v>
       </c>
-      <c r="G85" s="5" t="s">
+      <c r="H85" s="5" t="s">
         <v>2450</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="I85" s="5" t="s">
         <v>2444</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -18786,43 +19292,47 @@
         <v>84</v>
       </c>
       <c r="C86" s="5" t="s">
+        <v>2842</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>2610</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="E86" s="5" t="s">
         <v>2611</v>
       </c>
-      <c r="E86" s="5" t="s">
+      <c r="F86" s="5" t="s">
         <v>2612</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="G86" s="5" t="s">
         <v>2613</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="H86" s="5" t="s">
         <v>2614</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="I86" s="5" t="s">
         <v>2615</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="C87" s="5"/>
+      <c r="C87" s="2"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I87" s="5"/>
+    </row>
+    <row r="88" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="5"/>
@@ -18831,8 +19341,9 @@
       <c r="F88" s="5"/>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I88" s="5"/>
+    </row>
+    <row r="89" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -18840,25 +19351,28 @@
         <v>55</v>
       </c>
       <c r="C89" s="5" t="s">
+        <v>2787</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>2253</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>2254</v>
       </c>
       <c r="E89" s="5" t="s">
         <v>2254</v>
       </c>
       <c r="F89" s="5" t="s">
+        <v>2254</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>2255</v>
       </c>
-      <c r="G89" s="5" t="s">
+      <c r="H89" s="5" t="s">
         <v>2256</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="I89" s="5" t="s">
         <v>2257</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -18866,7 +19380,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>2384</v>
+        <v>2806</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>2384</v>
@@ -18875,16 +19389,19 @@
         <v>2384</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>2385</v>
       </c>
       <c r="H90" s="5" t="s">
+        <v>2385</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>2386</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -18892,25 +19409,28 @@
         <v>83</v>
       </c>
       <c r="C91" s="5" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>2451</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="E91" s="5" t="s">
         <v>2452</v>
       </c>
-      <c r="E91" s="5" t="s">
+      <c r="F91" s="5" t="s">
         <v>2453</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="G91" s="5" t="s">
         <v>2452</v>
       </c>
-      <c r="G91" s="5" t="s">
+      <c r="H91" s="5" t="s">
         <v>2454</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="I91" s="5" t="s">
         <v>2455</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -18918,29 +19438,32 @@
         <v>84</v>
       </c>
       <c r="C92" s="5" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>2616</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="E92" s="5" t="s">
         <v>2617</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="F92" s="5" t="s">
         <v>2618</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="G92" s="5" t="s">
         <v>2619</v>
       </c>
-      <c r="G92" s="5" t="s">
+      <c r="H92" s="5" t="s">
         <v>2620</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="I92" s="5" t="s">
         <v>2621</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C93" s="5"/>
@@ -18949,8 +19472,9 @@
       <c r="F93" s="5"/>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I93" s="5"/>
+    </row>
+    <row r="94" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -18958,25 +19482,28 @@
         <v>55</v>
       </c>
       <c r="C94" s="5" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>2258</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>2259</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="F94" s="5" t="s">
         <v>2260</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="G94" s="5" t="s">
         <v>2261</v>
       </c>
-      <c r="G94" s="5" t="s">
+      <c r="H94" s="5" t="s">
         <v>2260</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="I94" s="5" t="s">
         <v>2262</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -18984,25 +19511,28 @@
         <v>56</v>
       </c>
       <c r="C95" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>2366</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="E95" s="5" t="s">
         <v>2367</v>
       </c>
-      <c r="E95" s="5" t="s">
+      <c r="F95" s="5" t="s">
         <v>2366</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="G95" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G95" s="5" t="s">
+      <c r="H95" s="5" t="s">
         <v>2383</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="I95" s="5" t="s">
         <v>2376</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -19010,25 +19540,28 @@
         <v>83</v>
       </c>
       <c r="C96" s="5" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>2413</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="E96" s="5" t="s">
         <v>2416</v>
       </c>
-      <c r="E96" s="5" t="s">
+      <c r="F96" s="5" t="s">
         <v>2417</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="G96" s="5" t="s">
         <v>2415</v>
       </c>
-      <c r="G96" s="5" t="s">
+      <c r="H96" s="5" t="s">
         <v>2456</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="I96" s="5" t="s">
         <v>2457</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -19036,29 +19569,32 @@
         <v>84</v>
       </c>
       <c r="C97" s="5" t="s">
+        <v>2844</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>2622</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="E97" s="5" t="s">
         <v>2623</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="F97" s="5" t="s">
         <v>2624</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="G97" s="5" t="s">
         <v>2625</v>
       </c>
-      <c r="G97" s="5" t="s">
+      <c r="H97" s="5" t="s">
         <v>2626</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="I97" s="5" t="s">
         <v>2627</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C98" s="5"/>
@@ -19067,8 +19603,9 @@
       <c r="F98" s="5"/>
       <c r="G98" s="5"/>
       <c r="H98" s="5"/>
-    </row>
-    <row r="99" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I98" s="5"/>
+    </row>
+    <row r="99" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -19076,25 +19613,28 @@
         <v>55</v>
       </c>
       <c r="C99" s="5" t="s">
+        <v>2789</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>2263</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="E99" s="5" t="s">
         <v>2208</v>
       </c>
-      <c r="E99" s="5" t="s">
+      <c r="F99" s="5" t="s">
         <v>2264</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="G99" s="5" t="s">
         <v>2265</v>
       </c>
-      <c r="G99" s="5" t="s">
+      <c r="H99" s="5" t="s">
         <v>2266</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="I99" s="5" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -19105,22 +19645,25 @@
         <v>302</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>2378</v>
+        <v>302</v>
       </c>
       <c r="E100" s="5" t="s">
         <v>2378</v>
       </c>
       <c r="F100" s="5" t="s">
+        <v>2378</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>2369</v>
       </c>
-      <c r="G100" s="5" t="s">
+      <c r="H100" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="I100" s="5" t="s">
         <v>2369</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -19128,25 +19671,28 @@
         <v>83</v>
       </c>
       <c r="C101" s="5" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>2423</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="E101" s="5" t="s">
         <v>2458</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>2424</v>
       </c>
       <c r="F101" s="5" t="s">
         <v>2424</v>
       </c>
       <c r="G101" s="5" t="s">
+        <v>2424</v>
+      </c>
+      <c r="H101" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="I101" s="5" t="s">
         <v>2408</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -19154,29 +19700,32 @@
         <v>84</v>
       </c>
       <c r="C102" s="5" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>2628</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="E102" s="5" t="s">
         <v>2629</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="F102" s="5" t="s">
         <v>2630</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="G102" s="5" t="s">
         <v>2631</v>
       </c>
-      <c r="G102" s="5" t="s">
+      <c r="H102" s="5" t="s">
         <v>2632</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="I102" s="5" t="s">
         <v>2633</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C103" s="5"/>
@@ -19185,8 +19734,9 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
       <c r="H103" s="5"/>
-    </row>
-    <row r="104" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I103" s="5"/>
+    </row>
+    <row r="104" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -19194,25 +19744,28 @@
         <v>55</v>
       </c>
       <c r="C104" s="5" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>2268</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="E104" s="5" t="s">
         <v>2269</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="F104" s="5" t="s">
         <v>2270</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="G104" s="5" t="s">
         <v>2271</v>
       </c>
-      <c r="G104" s="5" t="s">
+      <c r="H104" s="5" t="s">
         <v>2269</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="I104" s="5" t="s">
         <v>2272</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -19223,22 +19776,25 @@
         <v>277</v>
       </c>
       <c r="D105" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E105" s="5" t="s">
         <v>2370</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="F105" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="G105" s="5" t="s">
         <v>2374</v>
       </c>
-      <c r="G105" s="5" t="s">
+      <c r="H105" s="5" t="s">
         <v>2381</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="I105" s="5" t="s">
         <v>2382</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -19246,25 +19802,28 @@
         <v>83</v>
       </c>
       <c r="C106" s="5" t="s">
+        <v>2815</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>2459</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="E106" s="5" t="s">
         <v>2460</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="F106" s="5" t="s">
         <v>2461</v>
       </c>
-      <c r="F106" s="5" t="s">
+      <c r="G106" s="5" t="s">
         <v>2462</v>
       </c>
-      <c r="G106" s="5" t="s">
+      <c r="H106" s="5" t="s">
         <v>2463</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="I106" s="5" t="s">
         <v>2434</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -19272,43 +19831,47 @@
         <v>84</v>
       </c>
       <c r="C107" s="5" t="s">
+        <v>2846</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>2634</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="E107" s="5" t="s">
         <v>2635</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="F107" s="5" t="s">
         <v>2636</v>
       </c>
-      <c r="F107" s="5" t="s">
+      <c r="G107" s="5" t="s">
         <v>2637</v>
       </c>
-      <c r="G107" s="5" t="s">
+      <c r="H107" s="5" t="s">
         <v>2638</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="I107" s="5" t="s">
         <v>2639</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>108</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="2"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
-    </row>
-    <row r="109" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I108" s="5"/>
+    </row>
+    <row r="109" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>17</v>
       </c>
       <c r="C109" s="5"/>
@@ -19317,8 +19880,9 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
-    </row>
-    <row r="110" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I109" s="5"/>
+    </row>
+    <row r="110" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -19326,25 +19890,28 @@
         <v>55</v>
       </c>
       <c r="C110" s="5" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>2273</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="E110" s="5" t="s">
         <v>2274</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="F110" s="5" t="s">
         <v>2275</v>
       </c>
-      <c r="F110" s="5" t="s">
+      <c r="G110" s="5" t="s">
         <v>2276</v>
       </c>
-      <c r="G110" s="5" t="s">
+      <c r="H110" s="5" t="s">
         <v>2277</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="I110" s="5" t="s">
         <v>2278</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -19352,7 +19919,7 @@
         <v>56</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>302</v>
+        <v>2368</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>302</v>
@@ -19361,16 +19928,19 @@
         <v>302</v>
       </c>
       <c r="F111" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>2368</v>
       </c>
-      <c r="G111" s="5" t="s">
+      <c r="H111" s="5" t="s">
         <v>2370</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="I111" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -19378,25 +19948,28 @@
         <v>83</v>
       </c>
       <c r="C112" s="5" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>2464</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="E112" s="5" t="s">
         <v>2465</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="F112" s="5" t="s">
         <v>2466</v>
       </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="5" t="s">
         <v>2467</v>
       </c>
-      <c r="G112" s="5" t="s">
+      <c r="H112" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="I112" s="5" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -19404,29 +19977,32 @@
         <v>84</v>
       </c>
       <c r="C113" s="5" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>2640</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="E113" s="5" t="s">
         <v>2641</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="F113" s="5" t="s">
         <v>2642</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="G113" s="5" t="s">
         <v>2643</v>
       </c>
-      <c r="G113" s="5" t="s">
+      <c r="H113" s="5" t="s">
         <v>2644</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="I113" s="5" t="s">
         <v>2645</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C114" s="5"/>
@@ -19435,8 +20011,9 @@
       <c r="F114" s="5"/>
       <c r="G114" s="5"/>
       <c r="H114" s="5"/>
-    </row>
-    <row r="115" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I114" s="5"/>
+    </row>
+    <row r="115" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -19444,25 +20021,28 @@
         <v>55</v>
       </c>
       <c r="C115" s="5" t="s">
+        <v>2792</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>2279</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="E115" s="5" t="s">
         <v>2280</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="F115" s="5" t="s">
         <v>2262</v>
       </c>
-      <c r="F115" s="5" t="s">
+      <c r="G115" s="5" t="s">
         <v>2281</v>
       </c>
-      <c r="G115" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>2282</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>2283</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -19470,25 +20050,28 @@
         <v>56</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>2386</v>
       </c>
       <c r="E116" s="5" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F116" s="5" t="s">
         <v>2365</v>
       </c>
-      <c r="F116" s="5" t="s">
+      <c r="G116" s="5" t="s">
         <v>2387</v>
       </c>
-      <c r="G116" s="5" t="s">
+      <c r="H116" s="5" t="s">
         <v>2366</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="I116" s="5" t="s">
         <v>2367</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -19496,25 +20079,28 @@
         <v>83</v>
       </c>
       <c r="C117" s="5" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>2469</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="E117" s="5" t="s">
         <v>2470</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="F117" s="5" t="s">
         <v>2471</v>
       </c>
-      <c r="F117" s="5" t="s">
+      <c r="G117" s="5" t="s">
         <v>2472</v>
       </c>
-      <c r="G117" s="5" t="s">
+      <c r="H117" s="5" t="s">
         <v>2473</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="I117" s="5" t="s">
         <v>2474</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -19522,43 +20108,47 @@
         <v>84</v>
       </c>
       <c r="C118" s="5" t="s">
+        <v>2848</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>2646</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="E118" s="5" t="s">
         <v>2647</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="F118" s="5" t="s">
         <v>2648</v>
       </c>
-      <c r="F118" s="5" t="s">
+      <c r="G118" s="5" t="s">
         <v>2649</v>
       </c>
-      <c r="G118" s="5" t="s">
+      <c r="H118" s="5" t="s">
         <v>2650</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="I118" s="5" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>119</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C119" s="5"/>
+      <c r="C119" s="2"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="5"/>
       <c r="H119" s="5"/>
-    </row>
-    <row r="120" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I119" s="5"/>
+    </row>
+    <row r="120" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C120" s="5"/>
@@ -19567,8 +20157,9 @@
       <c r="F120" s="5"/>
       <c r="G120" s="5"/>
       <c r="H120" s="5"/>
-    </row>
-    <row r="121" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I120" s="5"/>
+    </row>
+    <row r="121" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -19576,25 +20167,28 @@
         <v>55</v>
       </c>
       <c r="C121" s="5" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>2284</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="E121" s="5" t="s">
         <v>2285</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="F121" s="5" t="s">
         <v>2286</v>
       </c>
-      <c r="F121" s="5" t="s">
+      <c r="G121" s="5" t="s">
         <v>2287</v>
       </c>
-      <c r="G121" s="5" t="s">
+      <c r="H121" s="5" t="s">
         <v>2286</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="I121" s="5" t="s">
         <v>2288</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -19605,22 +20199,25 @@
         <v>2375</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="E122" s="5" t="s">
         <v>2376</v>
       </c>
       <c r="F122" s="5" t="s">
+        <v>2376</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>2375</v>
       </c>
-      <c r="G122" s="5" t="s">
+      <c r="H122" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="I122" s="5" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -19628,25 +20225,28 @@
         <v>83</v>
       </c>
       <c r="C123" s="5" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="E123" s="5" t="s">
         <v>2421</v>
       </c>
-      <c r="E123" s="5" t="s">
+      <c r="F123" s="5" t="s">
         <v>2468</v>
       </c>
-      <c r="F123" s="5" t="s">
+      <c r="G123" s="5" t="s">
         <v>2475</v>
       </c>
-      <c r="G123" s="5" t="s">
+      <c r="H123" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="I123" s="5" t="s">
         <v>2476</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -19654,29 +20254,32 @@
         <v>84</v>
       </c>
       <c r="C124" s="5" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>2652</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="E124" s="5" t="s">
         <v>2653</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="F124" s="5" t="s">
         <v>2654</v>
       </c>
-      <c r="F124" s="5" t="s">
+      <c r="G124" s="5" t="s">
         <v>2655</v>
       </c>
-      <c r="G124" s="5" t="s">
+      <c r="H124" s="5" t="s">
         <v>2656</v>
       </c>
-      <c r="H124" s="5" t="s">
+      <c r="I124" s="5" t="s">
         <v>2657</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C125" s="5"/>
@@ -19685,8 +20288,9 @@
       <c r="F125" s="5"/>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
-    </row>
-    <row r="126" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I125" s="5"/>
+    </row>
+    <row r="126" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -19694,25 +20298,28 @@
         <v>55</v>
       </c>
       <c r="C126" s="5" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>2251</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="E126" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="F126" s="5" t="s">
         <v>2289</v>
       </c>
-      <c r="F126" s="5" t="s">
+      <c r="G126" s="5" t="s">
         <v>2290</v>
       </c>
-      <c r="G126" s="5" t="s">
+      <c r="H126" s="5" t="s">
         <v>2291</v>
       </c>
-      <c r="H126" s="5" t="s">
+      <c r="I126" s="5" t="s">
         <v>2292</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -19720,25 +20327,28 @@
         <v>56</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>238</v>
+        <v>302</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>238</v>
       </c>
       <c r="E127" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F127" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F127" s="5" t="s">
+      <c r="G127" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G127" s="5" t="s">
+      <c r="H127" s="5" t="s">
         <v>2368</v>
       </c>
-      <c r="H127" s="5" t="s">
+      <c r="I127" s="5" t="s">
         <v>2369</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -19746,25 +20356,28 @@
         <v>83</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>303</v>
       </c>
       <c r="E128" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F128" s="5" t="s">
         <v>2419</v>
       </c>
-      <c r="F128" s="5" t="s">
+      <c r="G128" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="H128" s="5" t="s">
         <v>2420</v>
       </c>
-      <c r="H128" s="5" t="s">
+      <c r="I128" s="5" t="s">
         <v>2468</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -19772,29 +20385,32 @@
         <v>84</v>
       </c>
       <c r="C129" s="5" t="s">
+        <v>2850</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>2658</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="E129" s="5" t="s">
         <v>2659</v>
       </c>
-      <c r="E129" s="5" t="s">
+      <c r="F129" s="5" t="s">
         <v>2660</v>
       </c>
-      <c r="F129" s="5" t="s">
+      <c r="G129" s="5" t="s">
         <v>2661</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="H129" s="5" t="s">
         <v>2662</v>
       </c>
-      <c r="H129" s="5" t="s">
+      <c r="I129" s="5" t="s">
         <v>2663</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C130" s="5"/>
@@ -19803,8 +20419,9 @@
       <c r="F130" s="5"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
-    </row>
-    <row r="131" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I130" s="5"/>
+    </row>
+    <row r="131" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -19812,25 +20429,28 @@
         <v>55</v>
       </c>
       <c r="C131" s="5" t="s">
+        <v>2795</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>2265</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="E131" s="5" t="s">
         <v>2244</v>
       </c>
-      <c r="E131" s="5" t="s">
+      <c r="F131" s="5" t="s">
         <v>2293</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>2294</v>
       </c>
       <c r="G131" s="5" t="s">
         <v>2294</v>
       </c>
       <c r="H131" s="5" t="s">
+        <v>2294</v>
+      </c>
+      <c r="I131" s="5" t="s">
         <v>2295</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -19841,22 +20461,25 @@
         <v>2379</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>2368</v>
+        <v>2379</v>
       </c>
       <c r="E132" s="5" t="s">
         <v>2368</v>
       </c>
       <c r="F132" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="G132" s="5" t="s">
         <v>2379</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>2374</v>
       </c>
       <c r="H132" s="5" t="s">
         <v>2374</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I132" s="5" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -19864,25 +20487,28 @@
         <v>83</v>
       </c>
       <c r="C133" s="5" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>2406</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="E133" s="5" t="s">
         <v>2424</v>
       </c>
-      <c r="E133" s="5" t="s">
+      <c r="F133" s="5" t="s">
         <v>2458</v>
       </c>
-      <c r="F133" s="5" t="s">
+      <c r="G133" s="5" t="s">
         <v>2407</v>
       </c>
-      <c r="G133" s="5" t="s">
+      <c r="H133" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="H133" s="5" t="s">
+      <c r="I133" s="5" t="s">
         <v>2477</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -19890,43 +20516,47 @@
         <v>84</v>
       </c>
       <c r="C134" s="5" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>2664</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="E134" s="5" t="s">
         <v>2665</v>
       </c>
-      <c r="E134" s="5" t="s">
+      <c r="F134" s="5" t="s">
         <v>2666</v>
       </c>
-      <c r="F134" s="5" t="s">
+      <c r="G134" s="5" t="s">
         <v>2667</v>
       </c>
-      <c r="G134" s="5" t="s">
+      <c r="H134" s="5" t="s">
         <v>2668</v>
       </c>
-      <c r="H134" s="5" t="s">
+      <c r="I134" s="5" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>135</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="C135" s="5"/>
+      <c r="C135" s="2"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="5"/>
       <c r="H135" s="5"/>
-    </row>
-    <row r="136" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I135" s="5"/>
+    </row>
+    <row r="136" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C136" s="5"/>
@@ -19935,8 +20565,9 @@
       <c r="F136" s="5"/>
       <c r="G136" s="5"/>
       <c r="H136" s="5"/>
-    </row>
-    <row r="137" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I136" s="5"/>
+    </row>
+    <row r="137" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -19944,25 +20575,28 @@
         <v>55</v>
       </c>
       <c r="C137" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>2241</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="E137" s="5" t="s">
         <v>2296</v>
       </c>
-      <c r="E137" s="5" t="s">
+      <c r="F137" s="5" t="s">
         <v>2297</v>
       </c>
-      <c r="F137" s="5" t="s">
+      <c r="G137" s="5" t="s">
         <v>2298</v>
       </c>
-      <c r="G137" s="5" t="s">
+      <c r="H137" s="5" t="s">
         <v>2246</v>
       </c>
-      <c r="H137" s="5" t="s">
+      <c r="I137" s="5" t="s">
         <v>2267</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -19973,22 +20607,25 @@
         <v>238</v>
       </c>
       <c r="D138" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E138" s="5" t="s">
         <v>332</v>
-      </c>
-      <c r="E138" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="F138" s="5" t="s">
         <v>238</v>
       </c>
       <c r="G138" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="H138" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H138" s="5" t="s">
+      <c r="I138" s="5" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -19996,25 +20633,28 @@
         <v>83</v>
       </c>
       <c r="C139" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="E139" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E139" s="5" t="s">
+      <c r="F139" s="5" t="s">
         <v>2440</v>
       </c>
-      <c r="F139" s="5" t="s">
+      <c r="G139" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="G139" s="5" t="s">
+      <c r="H139" s="5" t="s">
         <v>2448</v>
       </c>
-      <c r="H139" s="5" t="s">
+      <c r="I139" s="5" t="s">
         <v>2478</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -20022,29 +20662,32 @@
         <v>84</v>
       </c>
       <c r="C140" s="5" t="s">
+        <v>2852</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>2670</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="E140" s="5" t="s">
         <v>2671</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="F140" s="5" t="s">
         <v>2672</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="G140" s="5" t="s">
         <v>2673</v>
       </c>
-      <c r="G140" s="5" t="s">
+      <c r="H140" s="5" t="s">
         <v>2674</v>
       </c>
-      <c r="H140" s="5" t="s">
+      <c r="I140" s="5" t="s">
         <v>2675</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C141" s="5"/>
@@ -20053,8 +20696,9 @@
       <c r="F141" s="5"/>
       <c r="G141" s="5"/>
       <c r="H141" s="5"/>
-    </row>
-    <row r="142" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I141" s="5"/>
+    </row>
+    <row r="142" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -20062,25 +20706,28 @@
         <v>55</v>
       </c>
       <c r="C142" s="5" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>2299</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="E142" s="5" t="s">
         <v>2300</v>
       </c>
-      <c r="E142" s="5" t="s">
+      <c r="F142" s="5" t="s">
         <v>2301</v>
       </c>
-      <c r="F142" s="5" t="s">
+      <c r="G142" s="5" t="s">
         <v>2302</v>
       </c>
-      <c r="G142" s="5" t="s">
+      <c r="H142" s="5" t="s">
         <v>2303</v>
       </c>
-      <c r="H142" s="5" t="s">
+      <c r="I142" s="5" t="s">
         <v>2242</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -20088,7 +20735,7 @@
         <v>56</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>2377</v>
+        <v>238</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>2377</v>
@@ -20097,16 +20744,19 @@
         <v>2377</v>
       </c>
       <c r="F143" s="5" t="s">
+        <v>2377</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="H143" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H143" s="5" t="s">
+      <c r="I143" s="5" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -20114,25 +20764,28 @@
         <v>83</v>
       </c>
       <c r="C144" s="5" t="s">
+        <v>2495</v>
+      </c>
+      <c r="D144" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="E144" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="E144" s="5" t="s">
+      <c r="F144" s="5" t="s">
         <v>2420</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="G144" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="G144" s="5" t="s">
+      <c r="H144" s="5" t="s">
         <v>2421</v>
       </c>
-      <c r="H144" s="5" t="s">
+      <c r="I144" s="5" t="s">
         <v>2478</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -20140,29 +20793,32 @@
         <v>84</v>
       </c>
       <c r="C145" s="5" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D145" s="5" t="s">
         <v>2676</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="E145" s="5" t="s">
         <v>2677</v>
       </c>
-      <c r="E145" s="5" t="s">
+      <c r="F145" s="5" t="s">
         <v>2678</v>
       </c>
-      <c r="F145" s="5" t="s">
+      <c r="G145" s="5" t="s">
         <v>2679</v>
       </c>
-      <c r="G145" s="5" t="s">
+      <c r="H145" s="5" t="s">
         <v>2680</v>
       </c>
-      <c r="H145" s="5" t="s">
+      <c r="I145" s="5" t="s">
         <v>2681</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C146" s="5"/>
@@ -20171,8 +20827,9 @@
       <c r="F146" s="5"/>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
-    </row>
-    <row r="147" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I146" s="5"/>
+    </row>
+    <row r="147" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -20180,25 +20837,28 @@
         <v>55</v>
       </c>
       <c r="C147" s="5" t="s">
+        <v>2273</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>2304</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>2305</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>2305</v>
       </c>
       <c r="F147" s="5" t="s">
+        <v>2305</v>
+      </c>
+      <c r="G147" s="5" t="s">
         <v>2192</v>
       </c>
-      <c r="G147" s="5" t="s">
+      <c r="H147" s="5" t="s">
         <v>2247</v>
       </c>
-      <c r="H147" s="5" t="s">
+      <c r="I147" s="5" t="s">
         <v>2306</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -20206,25 +20866,28 @@
         <v>56</v>
       </c>
       <c r="C148" s="5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>2379</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="E148" s="5" t="s">
         <v>2369</v>
       </c>
-      <c r="E148" s="5" t="s">
+      <c r="F148" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="F148" s="5" t="s">
+      <c r="G148" s="5" t="s">
         <v>2368</v>
       </c>
-      <c r="G148" s="5" t="s">
+      <c r="H148" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="H148" s="5" t="s">
+      <c r="I148" s="5" t="s">
         <v>2368</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -20232,25 +20895,28 @@
         <v>83</v>
       </c>
       <c r="C149" s="5" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>2479</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="E149" s="5" t="s">
         <v>2432</v>
       </c>
-      <c r="E149" s="5" t="s">
+      <c r="F149" s="5" t="s">
         <v>2426</v>
       </c>
-      <c r="F149" s="5" t="s">
+      <c r="G149" s="5" t="s">
         <v>2439</v>
       </c>
-      <c r="G149" s="5" t="s">
+      <c r="H149" s="5" t="s">
         <v>2480</v>
       </c>
-      <c r="H149" s="5" t="s">
+      <c r="I149" s="5" t="s">
         <v>2481</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -20258,43 +20924,47 @@
         <v>84</v>
       </c>
       <c r="C150" s="5" t="s">
+        <v>2854</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>2682</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="E150" s="5" t="s">
         <v>2683</v>
       </c>
-      <c r="E150" s="5" t="s">
+      <c r="F150" s="5" t="s">
         <v>2684</v>
       </c>
-      <c r="F150" s="5" t="s">
+      <c r="G150" s="5" t="s">
         <v>2685</v>
       </c>
-      <c r="G150" s="5" t="s">
+      <c r="H150" s="5" t="s">
         <v>2686</v>
       </c>
-      <c r="H150" s="5" t="s">
+      <c r="I150" s="5" t="s">
         <v>2687</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>151</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C151" s="5"/>
+      <c r="C151" s="2"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
-    </row>
-    <row r="152" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I151" s="5"/>
+    </row>
+    <row r="152" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>152</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C152" s="5"/>
@@ -20303,8 +20973,9 @@
       <c r="F152" s="5"/>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
-    </row>
-    <row r="153" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I152" s="5"/>
+    </row>
+    <row r="153" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -20312,25 +20983,28 @@
         <v>55</v>
       </c>
       <c r="C153" s="5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D153" s="5" t="s">
         <v>2231</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="E153" s="5" t="s">
         <v>2307</v>
       </c>
-      <c r="E153" s="5" t="s">
+      <c r="F153" s="5" t="s">
         <v>2308</v>
       </c>
-      <c r="F153" s="5" t="s">
+      <c r="G153" s="5" t="s">
         <v>2249</v>
       </c>
-      <c r="G153" s="5" t="s">
+      <c r="H153" s="5" t="s">
         <v>2232</v>
       </c>
-      <c r="H153" s="5" t="s">
+      <c r="I153" s="5" t="s">
         <v>2309</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -20338,25 +21012,28 @@
         <v>56</v>
       </c>
       <c r="C154" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="E154" s="5" t="s">
         <v>2375</v>
       </c>
-      <c r="E154" s="5" t="s">
+      <c r="F154" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="F154" s="5" t="s">
+      <c r="G154" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G154" s="5" t="s">
+      <c r="H154" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="H154" s="5" t="s">
+      <c r="I154" s="5" t="s">
         <v>2378</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -20364,25 +21041,28 @@
         <v>83</v>
       </c>
       <c r="C155" s="5" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>2420</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>2421</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>2421</v>
       </c>
       <c r="F155" s="5" t="s">
+        <v>2421</v>
+      </c>
+      <c r="G155" s="5" t="s">
         <v>2480</v>
       </c>
-      <c r="G155" s="5" t="s">
+      <c r="H155" s="5" t="s">
         <v>2442</v>
       </c>
-      <c r="H155" s="5" t="s">
+      <c r="I155" s="5" t="s">
         <v>2482</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -20390,39 +21070,43 @@
         <v>84</v>
       </c>
       <c r="C156" s="5" t="s">
+        <v>2855</v>
+      </c>
+      <c r="D156" s="5" t="s">
         <v>2688</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="E156" s="5" t="s">
         <v>2689</v>
       </c>
-      <c r="E156" s="5" t="s">
+      <c r="F156" s="5" t="s">
         <v>2690</v>
       </c>
-      <c r="F156" s="5" t="s">
+      <c r="G156" s="5" t="s">
         <v>2691</v>
       </c>
-      <c r="G156" s="5" t="s">
+      <c r="H156" s="5" t="s">
         <v>2692</v>
       </c>
-      <c r="H156" s="5" t="s">
+      <c r="I156" s="5" t="s">
         <v>2693</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>157</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="5"/>
+      <c r="C157" s="12"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
       <c r="H157" s="5"/>
-    </row>
-    <row r="158" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I157" s="5"/>
+    </row>
+    <row r="158" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -20430,25 +21114,28 @@
         <v>55</v>
       </c>
       <c r="C158" s="5" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>2310</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>2284</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>2284</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>2299</v>
+        <v>2284</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>2299</v>
       </c>
       <c r="H158" s="5" t="s">
+        <v>2299</v>
+      </c>
+      <c r="I158" s="5" t="s">
         <v>2311</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -20462,19 +21149,22 @@
         <v>2375</v>
       </c>
       <c r="E159" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="F159" s="5" t="s">
         <v>2383</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="G159" s="5" t="s">
         <v>2375</v>
       </c>
-      <c r="G159" s="5" t="s">
+      <c r="H159" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H159" s="5" t="s">
+      <c r="I159" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -20482,25 +21172,28 @@
         <v>83</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>2420</v>
+        <v>2819</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>2420</v>
       </c>
       <c r="E160" s="5" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F160" s="5" t="s">
         <v>2421</v>
       </c>
-      <c r="F160" s="5" t="s">
+      <c r="G160" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="G160" s="5" t="s">
+      <c r="H160" s="5" t="s">
         <v>2442</v>
       </c>
-      <c r="H160" s="5" t="s">
+      <c r="I160" s="5" t="s">
         <v>2482</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -20508,29 +21201,32 @@
         <v>84</v>
       </c>
       <c r="C161" s="5" t="s">
+        <v>2856</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>2694</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="E161" s="5" t="s">
         <v>2695</v>
       </c>
-      <c r="E161" s="5" t="s">
+      <c r="F161" s="5" t="s">
         <v>2696</v>
       </c>
-      <c r="F161" s="5" t="s">
+      <c r="G161" s="5" t="s">
         <v>2697</v>
       </c>
-      <c r="G161" s="5" t="s">
+      <c r="H161" s="5" t="s">
         <v>2698</v>
       </c>
-      <c r="H161" s="5" t="s">
+      <c r="I161" s="5" t="s">
         <v>2699</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>162</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C162" s="5"/>
@@ -20539,8 +21235,9 @@
       <c r="F162" s="5"/>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
-    </row>
-    <row r="163" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I162" s="5"/>
+    </row>
+    <row r="163" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -20548,25 +21245,28 @@
         <v>55</v>
       </c>
       <c r="C163" s="5" t="s">
+        <v>2797</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>2312</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="E163" s="5" t="s">
         <v>2313</v>
       </c>
-      <c r="E163" s="5" t="s">
+      <c r="F163" s="5" t="s">
         <v>2314</v>
       </c>
-      <c r="F163" s="5" t="s">
+      <c r="G163" s="5" t="s">
         <v>2315</v>
       </c>
-      <c r="G163" s="5" t="s">
+      <c r="H163" s="5" t="s">
         <v>2316</v>
       </c>
-      <c r="H163" s="5" t="s">
+      <c r="I163" s="5" t="s">
         <v>2317</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -20574,25 +21274,28 @@
         <v>56</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>2379</v>
+        <v>277</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>2379</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>2370</v>
+        <v>2379</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>2370</v>
       </c>
       <c r="G164" s="5" t="s">
+        <v>2370</v>
+      </c>
+      <c r="H164" s="5" t="s">
         <v>2374</v>
       </c>
-      <c r="H164" s="5" t="s">
+      <c r="I164" s="5" t="s">
         <v>2370</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -20600,25 +21303,28 @@
         <v>83</v>
       </c>
       <c r="C165" s="5" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>2483</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="E165" s="5" t="s">
         <v>2484</v>
       </c>
-      <c r="E165" s="5" t="s">
+      <c r="F165" s="5" t="s">
         <v>2485</v>
       </c>
-      <c r="F165" s="5" t="s">
+      <c r="G165" s="5" t="s">
         <v>2479</v>
       </c>
-      <c r="G165" s="5" t="s">
+      <c r="H165" s="5" t="s">
         <v>2424</v>
       </c>
-      <c r="H165" s="5" t="s">
+      <c r="I165" s="5" t="s">
         <v>2486</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -20626,43 +21332,47 @@
         <v>84</v>
       </c>
       <c r="C166" s="5" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D166" s="5" t="s">
         <v>2700</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="E166" s="5" t="s">
         <v>2701</v>
       </c>
-      <c r="E166" s="5" t="s">
+      <c r="F166" s="5" t="s">
         <v>2702</v>
       </c>
-      <c r="F166" s="5" t="s">
+      <c r="G166" s="5" t="s">
         <v>2703</v>
       </c>
-      <c r="G166" s="5" t="s">
+      <c r="H166" s="5" t="s">
         <v>2704</v>
       </c>
-      <c r="H166" s="5" t="s">
+      <c r="I166" s="5" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>167</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C167" s="5"/>
+      <c r="C167" s="2"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
-    </row>
-    <row r="168" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I167" s="5"/>
+    </row>
+    <row r="168" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>168</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C168" s="5"/>
@@ -20671,8 +21381,9 @@
       <c r="F168" s="5"/>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
-    </row>
-    <row r="169" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I168" s="5"/>
+    </row>
+    <row r="169" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -20680,25 +21391,28 @@
         <v>55</v>
       </c>
       <c r="C169" s="5" t="s">
+        <v>2798</v>
+      </c>
+      <c r="D169" s="5" t="s">
         <v>2318</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="E169" s="5" t="s">
         <v>2319</v>
       </c>
-      <c r="E169" s="5" t="s">
+      <c r="F169" s="5" t="s">
         <v>2308</v>
       </c>
-      <c r="F169" s="5" t="s">
+      <c r="G169" s="5" t="s">
         <v>2320</v>
       </c>
-      <c r="G169" s="5" t="s">
+      <c r="H169" s="5" t="s">
         <v>2321</v>
       </c>
-      <c r="H169" s="5" t="s">
+      <c r="I169" s="5" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -20706,25 +21420,28 @@
         <v>56</v>
       </c>
       <c r="C170" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D170" s="5" t="s">
         <v>2376</v>
-      </c>
-      <c r="D170" s="5" t="s">
-        <v>2375</v>
       </c>
       <c r="E170" s="5" t="s">
         <v>2375</v>
       </c>
       <c r="F170" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G170" s="5" t="s">
         <v>2377</v>
       </c>
-      <c r="G170" s="5" t="s">
+      <c r="H170" s="5" t="s">
         <v>2378</v>
       </c>
-      <c r="H170" s="5" t="s">
+      <c r="I170" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -20732,25 +21449,28 @@
         <v>83</v>
       </c>
       <c r="C171" s="5" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D171" s="5" t="s">
         <v>2397</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="E171" s="5" t="s">
         <v>2487</v>
       </c>
-      <c r="E171" s="5" t="s">
+      <c r="F171" s="5" t="s">
         <v>2488</v>
       </c>
-      <c r="F171" s="5" t="s">
+      <c r="G171" s="5" t="s">
         <v>2442</v>
       </c>
-      <c r="G171" s="5" t="s">
+      <c r="H171" s="5" t="s">
         <v>2489</v>
       </c>
-      <c r="H171" s="5" t="s">
+      <c r="I171" s="5" t="s">
         <v>2413</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -20758,29 +21478,32 @@
         <v>84</v>
       </c>
       <c r="C172" s="5" t="s">
+        <v>2858</v>
+      </c>
+      <c r="D172" s="5" t="s">
         <v>2706</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="E172" s="5" t="s">
         <v>2707</v>
       </c>
-      <c r="E172" s="5" t="s">
+      <c r="F172" s="5" t="s">
         <v>2708</v>
       </c>
-      <c r="F172" s="5" t="s">
+      <c r="G172" s="5" t="s">
         <v>2709</v>
       </c>
-      <c r="G172" s="5" t="s">
+      <c r="H172" s="5" t="s">
         <v>2710</v>
       </c>
-      <c r="H172" s="5" t="s">
+      <c r="I172" s="5" t="s">
         <v>2711</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>173</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C173" s="5"/>
@@ -20789,8 +21512,9 @@
       <c r="F173" s="5"/>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
-    </row>
-    <row r="174" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I173" s="5"/>
+    </row>
+    <row r="174" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -20798,25 +21522,28 @@
         <v>55</v>
       </c>
       <c r="C174" s="5" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D174" s="5" t="s">
         <v>2183</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="E174" s="5" t="s">
         <v>2322</v>
       </c>
-      <c r="E174" s="5" t="s">
+      <c r="F174" s="5" t="s">
         <v>2323</v>
       </c>
-      <c r="F174" s="5" t="s">
+      <c r="G174" s="5" t="s">
         <v>2324</v>
       </c>
-      <c r="G174" s="5" t="s">
+      <c r="H174" s="5" t="s">
         <v>2325</v>
       </c>
-      <c r="H174" s="5" t="s">
+      <c r="I174" s="5" t="s">
         <v>2326</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -20824,25 +21551,28 @@
         <v>56</v>
       </c>
       <c r="C175" s="5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="D175" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="E175" s="5" t="s">
         <v>2368</v>
       </c>
-      <c r="E175" s="5" t="s">
+      <c r="F175" s="5" t="s">
         <v>2379</v>
       </c>
-      <c r="F175" s="5" t="s">
+      <c r="G175" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G175" s="5" t="s">
+      <c r="H175" s="5" t="s">
         <v>2382</v>
       </c>
-      <c r="H175" s="5" t="s">
+      <c r="I175" s="5" t="s">
         <v>2388</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -20850,25 +21580,28 @@
         <v>83</v>
       </c>
       <c r="C176" s="5" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>2490</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>2491</v>
       </c>
-      <c r="E176" s="5" t="s">
+      <c r="F176" s="5" t="s">
         <v>2492</v>
       </c>
-      <c r="F176" s="5" t="s">
+      <c r="G176" s="5" t="s">
         <v>2462</v>
       </c>
-      <c r="G176" s="5" t="s">
+      <c r="H176" s="5" t="s">
         <v>2493</v>
       </c>
-      <c r="H176" s="5" t="s">
+      <c r="I176" s="5" t="s">
         <v>2494</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -20876,43 +21609,47 @@
         <v>84</v>
       </c>
       <c r="C177" s="5" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>2712</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="E177" s="5" t="s">
         <v>2713</v>
       </c>
-      <c r="E177" s="5" t="s">
+      <c r="F177" s="5" t="s">
         <v>2714</v>
       </c>
-      <c r="F177" s="5" t="s">
+      <c r="G177" s="5" t="s">
         <v>2715</v>
       </c>
-      <c r="G177" s="5" t="s">
+      <c r="H177" s="5" t="s">
         <v>2716</v>
       </c>
-      <c r="H177" s="5" t="s">
+      <c r="I177" s="5" t="s">
         <v>2717</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>178</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="C178" s="5"/>
+      <c r="C178" s="2"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="5"/>
       <c r="H178" s="5"/>
-    </row>
-    <row r="179" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I178" s="5"/>
+    </row>
+    <row r="179" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>179</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C179" s="5"/>
@@ -20921,8 +21658,9 @@
       <c r="F179" s="5"/>
       <c r="G179" s="5"/>
       <c r="H179" s="5"/>
-    </row>
-    <row r="180" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I179" s="5"/>
+    </row>
+    <row r="180" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -20930,25 +21668,28 @@
         <v>55</v>
       </c>
       <c r="C180" s="5" t="s">
+        <v>2800</v>
+      </c>
+      <c r="D180" s="5" t="s">
         <v>2327</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="E180" s="5" t="s">
         <v>2328</v>
       </c>
-      <c r="E180" s="5" t="s">
+      <c r="F180" s="5" t="s">
         <v>2320</v>
       </c>
-      <c r="F180" s="5" t="s">
+      <c r="G180" s="5" t="s">
         <v>2329</v>
       </c>
-      <c r="G180" s="5" t="s">
+      <c r="H180" s="5" t="s">
         <v>2321</v>
       </c>
-      <c r="H180" s="5" t="s">
+      <c r="I180" s="5" t="s">
         <v>2330</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -20965,16 +21706,19 @@
         <v>2375</v>
       </c>
       <c r="F181" s="5" t="s">
+        <v>2375</v>
+      </c>
+      <c r="G181" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="G181" s="5" t="s">
+      <c r="H181" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="H181" s="5" t="s">
+      <c r="I181" s="5" t="s">
         <v>2377</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -20982,25 +21726,28 @@
         <v>83</v>
       </c>
       <c r="C182" s="5" t="s">
+        <v>2819</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="E182" s="5" t="s">
         <v>2495</v>
-      </c>
-      <c r="E182" s="5" t="s">
-        <v>307</v>
       </c>
       <c r="F182" s="5" t="s">
         <v>307</v>
       </c>
       <c r="G182" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="H182" s="5" t="s">
         <v>2496</v>
       </c>
-      <c r="H182" s="5" t="s">
+      <c r="I182" s="5" t="s">
         <v>2469</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -21008,29 +21755,32 @@
         <v>84</v>
       </c>
       <c r="C183" s="5" t="s">
+        <v>2860</v>
+      </c>
+      <c r="D183" s="5" t="s">
         <v>2718</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="E183" s="5" t="s">
         <v>2719</v>
       </c>
-      <c r="E183" s="5" t="s">
+      <c r="F183" s="5" t="s">
         <v>2720</v>
       </c>
-      <c r="F183" s="5" t="s">
+      <c r="G183" s="5" t="s">
         <v>2721</v>
       </c>
-      <c r="G183" s="5" t="s">
+      <c r="H183" s="5" t="s">
         <v>2707</v>
       </c>
-      <c r="H183" s="5" t="s">
+      <c r="I183" s="5" t="s">
         <v>2722</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>184</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C184" s="5"/>
@@ -21039,8 +21789,9 @@
       <c r="F184" s="5"/>
       <c r="G184" s="5"/>
       <c r="H184" s="5"/>
-    </row>
-    <row r="185" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I184" s="5"/>
+    </row>
+    <row r="185" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -21048,25 +21799,28 @@
         <v>55</v>
       </c>
       <c r="C185" s="5" t="s">
+        <v>2801</v>
+      </c>
+      <c r="D185" s="5" t="s">
         <v>2331</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="E185" s="5" t="s">
         <v>2332</v>
       </c>
-      <c r="E185" s="5" t="s">
+      <c r="F185" s="5" t="s">
         <v>2333</v>
       </c>
-      <c r="F185" s="5" t="s">
+      <c r="G185" s="5" t="s">
         <v>2334</v>
       </c>
-      <c r="G185" s="5" t="s">
+      <c r="H185" s="5" t="s">
         <v>2335</v>
       </c>
-      <c r="H185" s="5" t="s">
+      <c r="I185" s="5" t="s">
         <v>2336</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -21077,22 +21831,25 @@
         <v>2373</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="E186" s="5" t="s">
         <v>2372</v>
       </c>
       <c r="F186" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="G186" s="5" t="s">
         <v>2373</v>
       </c>
-      <c r="G186" s="5" t="s">
+      <c r="H186" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="H186" s="5" t="s">
+      <c r="I186" s="5" t="s">
         <v>2373</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -21100,25 +21857,28 @@
         <v>83</v>
       </c>
       <c r="C187" s="5" t="s">
+        <v>2409</v>
+      </c>
+      <c r="D187" s="5" t="s">
         <v>2497</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="E187" s="5" t="s">
         <v>2498</v>
       </c>
-      <c r="E187" s="5" t="s">
+      <c r="F187" s="5" t="s">
         <v>2499</v>
       </c>
-      <c r="F187" s="5" t="s">
+      <c r="G187" s="5" t="s">
         <v>2493</v>
       </c>
-      <c r="G187" s="5" t="s">
+      <c r="H187" s="5" t="s">
         <v>2484</v>
       </c>
-      <c r="H187" s="5" t="s">
+      <c r="I187" s="5" t="s">
         <v>2437</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -21126,43 +21886,47 @@
         <v>84</v>
       </c>
       <c r="C188" s="5" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D188" s="5" t="s">
         <v>2723</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="E188" s="5" t="s">
         <v>2724</v>
       </c>
-      <c r="E188" s="5" t="s">
+      <c r="F188" s="5" t="s">
         <v>2725</v>
       </c>
-      <c r="F188" s="5" t="s">
+      <c r="G188" s="5" t="s">
         <v>2726</v>
       </c>
-      <c r="G188" s="5" t="s">
+      <c r="H188" s="5" t="s">
         <v>2727</v>
       </c>
-      <c r="H188" s="5" t="s">
+      <c r="I188" s="5" t="s">
         <v>2728</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>189</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C189" s="5"/>
+      <c r="C189" s="2"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="5"/>
       <c r="H189" s="5"/>
-    </row>
-    <row r="190" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I189" s="5"/>
+    </row>
+    <row r="190" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>190</v>
       </c>
-      <c r="B190" s="9" t="s">
+      <c r="B190" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C190" s="5"/>
@@ -21171,8 +21935,9 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
       <c r="H190" s="5"/>
-    </row>
-    <row r="191" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I190" s="5"/>
+    </row>
+    <row r="191" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -21180,25 +21945,28 @@
         <v>55</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>2321</v>
+        <v>2802</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>2321</v>
       </c>
       <c r="E191" s="5" t="s">
+        <v>2321</v>
+      </c>
+      <c r="F191" s="5" t="s">
         <v>2337</v>
       </c>
-      <c r="F191" s="5" t="s">
+      <c r="G191" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="G191" s="5" t="s">
+      <c r="H191" s="5" t="s">
         <v>2338</v>
       </c>
-      <c r="H191" s="5" t="s">
+      <c r="I191" s="5" t="s">
         <v>2339</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -21206,25 +21974,28 @@
         <v>56</v>
       </c>
       <c r="C192" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D192" s="5" t="s">
         <v>2377</v>
-      </c>
-      <c r="D192" s="5" t="s">
-        <v>332</v>
       </c>
       <c r="E192" s="5" t="s">
         <v>332</v>
       </c>
       <c r="F192" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G192" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="G192" s="5" t="s">
+      <c r="H192" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="H192" s="5" t="s">
+      <c r="I192" s="5" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -21232,25 +22003,28 @@
         <v>83</v>
       </c>
       <c r="C193" s="5" t="s">
+        <v>2823</v>
+      </c>
+      <c r="D193" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="E193" s="5" t="s">
         <v>2500</v>
       </c>
-      <c r="E193" s="5" t="s">
+      <c r="F193" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F193" s="5" t="s">
+      <c r="G193" s="5" t="s">
         <v>2501</v>
       </c>
-      <c r="G193" s="5" t="s">
+      <c r="H193" s="5" t="s">
         <v>2442</v>
       </c>
-      <c r="H193" s="5" t="s">
+      <c r="I193" s="5" t="s">
         <v>2472</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -21258,29 +22032,32 @@
         <v>84</v>
       </c>
       <c r="C194" s="5" t="s">
+        <v>2862</v>
+      </c>
+      <c r="D194" s="5" t="s">
         <v>2729</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="E194" s="5" t="s">
         <v>2730</v>
       </c>
-      <c r="E194" s="5" t="s">
+      <c r="F194" s="5" t="s">
         <v>2731</v>
       </c>
-      <c r="F194" s="5" t="s">
+      <c r="G194" s="5" t="s">
         <v>2732</v>
       </c>
-      <c r="G194" s="5" t="s">
+      <c r="H194" s="5" t="s">
         <v>2733</v>
       </c>
-      <c r="H194" s="5" t="s">
+      <c r="I194" s="5" t="s">
         <v>2734</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>195</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B195" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C195" s="5"/>
@@ -21289,8 +22066,9 @@
       <c r="F195" s="5"/>
       <c r="G195" s="5"/>
       <c r="H195" s="5"/>
-    </row>
-    <row r="196" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I195" s="5"/>
+    </row>
+    <row r="196" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -21298,25 +22076,28 @@
         <v>55</v>
       </c>
       <c r="C196" s="5" t="s">
+        <v>2803</v>
+      </c>
+      <c r="D196" s="5" t="s">
         <v>2340</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="E196" s="5" t="s">
         <v>2341</v>
       </c>
-      <c r="E196" s="5" t="s">
+      <c r="F196" s="5" t="s">
         <v>2342</v>
       </c>
-      <c r="F196" s="5" t="s">
+      <c r="G196" s="5" t="s">
         <v>2343</v>
       </c>
-      <c r="G196" s="5" t="s">
+      <c r="H196" s="5" t="s">
         <v>2344</v>
       </c>
-      <c r="H196" s="5" t="s">
+      <c r="I196" s="5" t="s">
         <v>2217</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -21324,25 +22105,28 @@
         <v>56</v>
       </c>
       <c r="C197" s="5" t="s">
+        <v>2373</v>
+      </c>
+      <c r="D197" s="5" t="s">
         <v>2389</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="E197" s="5" t="s">
         <v>2373</v>
       </c>
-      <c r="E197" s="5" t="s">
+      <c r="F197" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F197" s="5" t="s">
+      <c r="G197" s="5" t="s">
         <v>2372</v>
       </c>
-      <c r="G197" s="5" t="s">
+      <c r="H197" s="5" t="s">
         <v>2371</v>
       </c>
-      <c r="H197" s="5" t="s">
+      <c r="I197" s="5" t="s">
         <v>2381</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -21350,25 +22134,28 @@
         <v>83</v>
       </c>
       <c r="C198" s="5" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D198" s="5" t="s">
         <v>2502</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="E198" s="5" t="s">
         <v>2503</v>
       </c>
-      <c r="E198" s="5" t="s">
+      <c r="F198" s="5" t="s">
         <v>2504</v>
       </c>
-      <c r="F198" s="5" t="s">
+      <c r="G198" s="5" t="s">
         <v>2491</v>
       </c>
-      <c r="G198" s="5" t="s">
+      <c r="H198" s="5" t="s">
         <v>2406</v>
       </c>
-      <c r="H198" s="5" t="s">
+      <c r="I198" s="5" t="s">
         <v>2505</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -21376,43 +22163,47 @@
         <v>84</v>
       </c>
       <c r="C199" s="5" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D199" s="5" t="s">
         <v>2735</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="E199" s="5" t="s">
         <v>2736</v>
       </c>
-      <c r="E199" s="5" t="s">
+      <c r="F199" s="5" t="s">
         <v>2737</v>
       </c>
-      <c r="F199" s="5" t="s">
+      <c r="G199" s="5" t="s">
         <v>2738</v>
       </c>
-      <c r="G199" s="5" t="s">
+      <c r="H199" s="5" t="s">
         <v>2739</v>
       </c>
-      <c r="H199" s="5" t="s">
+      <c r="I199" s="5" t="s">
         <v>2740</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>200</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C200" s="5"/>
+      <c r="C200" s="2"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
       <c r="G200" s="5"/>
       <c r="H200" s="5"/>
-    </row>
-    <row r="201" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I200" s="5"/>
+    </row>
+    <row r="201" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>201</v>
       </c>
-      <c r="B201" s="9" t="s">
+      <c r="B201" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C201" s="5"/>
@@ -21421,8 +22212,9 @@
       <c r="F201" s="5"/>
       <c r="G201" s="5"/>
       <c r="H201" s="5"/>
-    </row>
-    <row r="202" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I201" s="5"/>
+    </row>
+    <row r="202" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -21430,25 +22222,28 @@
         <v>55</v>
       </c>
       <c r="C202" s="5" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D202" s="5" t="s">
         <v>2329</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="E202" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E202" s="5" t="s">
+      <c r="F202" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F202" s="5" t="s">
+      <c r="G202" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G202" s="5" t="s">
+      <c r="H202" s="5" t="s">
         <v>2345</v>
       </c>
-      <c r="H202" s="5" t="s">
+      <c r="I202" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -21465,16 +22260,19 @@
         <v>238</v>
       </c>
       <c r="F203" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G203" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="H203" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I203" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -21482,25 +22280,28 @@
         <v>83</v>
       </c>
       <c r="C204" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D204" s="5" t="s">
         <v>2506</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="E204" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E204" s="5" t="s">
+      <c r="F204" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="F204" s="5" t="s">
+      <c r="G204" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="G204" s="5" t="s">
+      <c r="H204" s="5" t="s">
         <v>2507</v>
       </c>
-      <c r="H204" s="5" t="s">
+      <c r="I204" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -21508,29 +22309,32 @@
         <v>84</v>
       </c>
       <c r="C205" s="5" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D205" s="5" t="s">
         <v>2741</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="E205" s="5" t="s">
         <v>2742</v>
       </c>
-      <c r="E205" s="5" t="s">
+      <c r="F205" s="5" t="s">
         <v>2743</v>
       </c>
-      <c r="F205" s="5" t="s">
+      <c r="G205" s="5" t="s">
         <v>2744</v>
       </c>
-      <c r="G205" s="5" t="s">
+      <c r="H205" s="5" t="s">
         <v>2745</v>
       </c>
-      <c r="H205" s="5" t="s">
+      <c r="I205" s="5" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>206</v>
       </c>
-      <c r="B206" s="9" t="s">
+      <c r="B206" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C206" s="5"/>
@@ -21539,8 +22343,9 @@
       <c r="F206" s="5"/>
       <c r="G206" s="5"/>
       <c r="H206" s="5"/>
-    </row>
-    <row r="207" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I206" s="5"/>
+    </row>
+    <row r="207" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -21548,25 +22353,28 @@
         <v>55</v>
       </c>
       <c r="C207" s="5" t="s">
+        <v>2216</v>
+      </c>
+      <c r="D207" s="5" t="s">
         <v>2346</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="E207" s="5" t="s">
         <v>2347</v>
       </c>
-      <c r="E207" s="5" t="s">
+      <c r="F207" s="5" t="s">
         <v>2348</v>
       </c>
-      <c r="F207" s="5" t="s">
+      <c r="G207" s="5" t="s">
         <v>2349</v>
       </c>
-      <c r="G207" s="5" t="s">
+      <c r="H207" s="5" t="s">
         <v>2350</v>
       </c>
-      <c r="H207" s="5" t="s">
+      <c r="I207" s="5" t="s">
         <v>2351</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -21574,25 +22382,28 @@
         <v>56</v>
       </c>
       <c r="C208" s="5" t="s">
+        <v>2371</v>
+      </c>
+      <c r="D208" s="5" t="s">
         <v>2389</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="E208" s="5" t="s">
         <v>2390</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>2389</v>
       </c>
       <c r="F208" s="5" t="s">
         <v>2389</v>
       </c>
       <c r="G208" s="5" t="s">
+        <v>2389</v>
+      </c>
+      <c r="H208" s="5" t="s">
         <v>2391</v>
       </c>
-      <c r="H208" s="5" t="s">
+      <c r="I208" s="5" t="s">
         <v>2392</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -21600,25 +22411,28 @@
         <v>83</v>
       </c>
       <c r="C209" s="5" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D209" s="5" t="s">
         <v>2508</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="E209" s="5" t="s">
         <v>2509</v>
       </c>
-      <c r="E209" s="5" t="s">
+      <c r="F209" s="5" t="s">
         <v>2510</v>
       </c>
-      <c r="F209" s="5" t="s">
+      <c r="G209" s="5" t="s">
         <v>2511</v>
       </c>
-      <c r="G209" s="5" t="s">
+      <c r="H209" s="5" t="s">
         <v>2512</v>
       </c>
-      <c r="H209" s="5" t="s">
+      <c r="I209" s="5" t="s">
         <v>2513</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -21626,43 +22440,47 @@
         <v>84</v>
       </c>
       <c r="C210" s="5" t="s">
+        <v>2865</v>
+      </c>
+      <c r="D210" s="5" t="s">
         <v>2747</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="E210" s="5" t="s">
         <v>2748</v>
       </c>
-      <c r="E210" s="5" t="s">
+      <c r="F210" s="5" t="s">
         <v>2749</v>
       </c>
-      <c r="F210" s="5" t="s">
+      <c r="G210" s="5" t="s">
         <v>2750</v>
       </c>
-      <c r="G210" s="5" t="s">
+      <c r="H210" s="5" t="s">
         <v>2751</v>
       </c>
-      <c r="H210" s="5" t="s">
+      <c r="I210" s="5" t="s">
         <v>2752</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="1">
         <v>211</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="C211" s="5"/>
+      <c r="C211" s="2"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
       <c r="H211" s="5"/>
-    </row>
-    <row r="212" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I211" s="5"/>
+    </row>
+    <row r="212" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="1">
         <v>212</v>
       </c>
-      <c r="B212" s="9" t="s">
+      <c r="B212" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C212" s="5"/>
@@ -21671,8 +22489,9 @@
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
       <c r="H212" s="5"/>
-    </row>
-    <row r="213" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I212" s="5"/>
+    </row>
+    <row r="213" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -21680,25 +22499,28 @@
         <v>55</v>
       </c>
       <c r="C213" s="5" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D213" s="5" t="s">
         <v>2329</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="E213" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E213" s="5" t="s">
+      <c r="F213" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F213" s="5" t="s">
+      <c r="G213" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G213" s="5" t="s">
+      <c r="H213" s="5" t="s">
         <v>2345</v>
       </c>
-      <c r="H213" s="5" t="s">
+      <c r="I213" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -21715,16 +22537,19 @@
         <v>238</v>
       </c>
       <c r="F214" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G214" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="H214" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I214" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -21732,25 +22557,28 @@
         <v>83</v>
       </c>
       <c r="C215" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D215" s="5" t="s">
         <v>2506</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="E215" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="E215" s="5" t="s">
+      <c r="F215" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="F215" s="5" t="s">
+      <c r="G215" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="G215" s="5" t="s">
+      <c r="H215" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="H215" s="5" t="s">
+      <c r="I215" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -21758,29 +22586,32 @@
         <v>84</v>
       </c>
       <c r="C216" s="5" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D216" s="5" t="s">
         <v>2753</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="E216" s="5" t="s">
         <v>2742</v>
       </c>
-      <c r="E216" s="5" t="s">
+      <c r="F216" s="5" t="s">
         <v>2754</v>
       </c>
-      <c r="F216" s="5" t="s">
+      <c r="G216" s="5" t="s">
         <v>2755</v>
       </c>
-      <c r="G216" s="5" t="s">
+      <c r="H216" s="5" t="s">
         <v>2756</v>
       </c>
-      <c r="H216" s="5" t="s">
+      <c r="I216" s="5" t="s">
         <v>2757</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="1">
         <v>217</v>
       </c>
-      <c r="B217" s="9" t="s">
+      <c r="B217" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C217" s="5"/>
@@ -21789,8 +22620,9 @@
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
       <c r="H217" s="5"/>
-    </row>
-    <row r="218" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I217" s="5"/>
+    </row>
+    <row r="218" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -21798,25 +22630,28 @@
         <v>55</v>
       </c>
       <c r="C218" s="5" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D218" s="5" t="s">
         <v>2352</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="E218" s="5" t="s">
         <v>2353</v>
       </c>
-      <c r="E218" s="5" t="s">
+      <c r="F218" s="5" t="s">
         <v>2354</v>
       </c>
-      <c r="F218" s="5" t="s">
+      <c r="G218" s="5" t="s">
         <v>2355</v>
       </c>
-      <c r="G218" s="5" t="s">
+      <c r="H218" s="5" t="s">
         <v>2356</v>
       </c>
-      <c r="H218" s="5" t="s">
+      <c r="I218" s="5" t="s">
         <v>2357</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -21824,7 +22659,7 @@
         <v>56</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>2393</v>
+        <v>2807</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>2393</v>
@@ -21833,16 +22668,19 @@
         <v>2393</v>
       </c>
       <c r="F219" s="5" t="s">
+        <v>2393</v>
+      </c>
+      <c r="G219" s="5" t="s">
         <v>2394</v>
       </c>
-      <c r="G219" s="5" t="s">
+      <c r="H219" s="5" t="s">
         <v>2395</v>
       </c>
-      <c r="H219" s="5" t="s">
+      <c r="I219" s="5" t="s">
         <v>2396</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -21850,25 +22688,28 @@
         <v>83</v>
       </c>
       <c r="C220" s="5" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D220" s="5" t="s">
         <v>2514</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="E220" s="5" t="s">
         <v>2515</v>
       </c>
-      <c r="E220" s="5" t="s">
+      <c r="F220" s="5" t="s">
         <v>2516</v>
       </c>
-      <c r="F220" s="5" t="s">
+      <c r="G220" s="5" t="s">
         <v>2517</v>
       </c>
-      <c r="G220" s="5" t="s">
+      <c r="H220" s="5" t="s">
         <v>2518</v>
       </c>
-      <c r="H220" s="5" t="s">
+      <c r="I220" s="5" t="s">
         <v>2519</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -21876,43 +22717,47 @@
         <v>84</v>
       </c>
       <c r="C221" s="5" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D221" s="5" t="s">
         <v>2758</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="E221" s="5" t="s">
         <v>2759</v>
       </c>
-      <c r="E221" s="5" t="s">
+      <c r="F221" s="5" t="s">
         <v>2760</v>
       </c>
-      <c r="F221" s="5" t="s">
+      <c r="G221" s="5" t="s">
         <v>2761</v>
       </c>
-      <c r="G221" s="5" t="s">
+      <c r="H221" s="5" t="s">
         <v>2762</v>
       </c>
-      <c r="H221" s="5" t="s">
+      <c r="I221" s="5" t="s">
         <v>2763</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="1">
         <v>222</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C222" s="5"/>
+      <c r="C222" s="2"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
       <c r="H222" s="5"/>
-    </row>
-    <row r="223" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I222" s="5"/>
+    </row>
+    <row r="223" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="1">
         <v>223</v>
       </c>
-      <c r="B223" s="9" t="s">
+      <c r="B223" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C223" s="5"/>
@@ -21921,8 +22766,9 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
       <c r="H223" s="5"/>
-    </row>
-    <row r="224" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I223" s="5"/>
+    </row>
+    <row r="224" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -21930,25 +22776,28 @@
         <v>55</v>
       </c>
       <c r="C224" s="5" t="s">
+        <v>2804</v>
+      </c>
+      <c r="D224" s="5" t="s">
         <v>2329</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="E224" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E224" s="5" t="s">
+      <c r="F224" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F224" s="5" t="s">
+      <c r="G224" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="G224" s="5" t="s">
+      <c r="H224" s="5" t="s">
         <v>2345</v>
       </c>
-      <c r="H224" s="5" t="s">
+      <c r="I224" s="5" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -21965,16 +22814,19 @@
         <v>238</v>
       </c>
       <c r="F225" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G225" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="G225" s="5" t="s">
-        <v>302</v>
       </c>
       <c r="H225" s="5" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I225" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -21982,25 +22834,28 @@
         <v>83</v>
       </c>
       <c r="C226" s="5" t="s">
+        <v>2500</v>
+      </c>
+      <c r="D226" s="5" t="s">
         <v>2506</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="E226" s="5" t="s">
         <v>304</v>
-      </c>
-      <c r="E226" s="5" t="s">
-        <v>305</v>
       </c>
       <c r="F226" s="5" t="s">
         <v>305</v>
       </c>
       <c r="G226" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="H226" s="5" t="s">
         <v>2507</v>
       </c>
-      <c r="H226" s="5" t="s">
+      <c r="I226" s="5" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -22008,29 +22863,32 @@
         <v>84</v>
       </c>
       <c r="C227" s="5" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D227" s="5" t="s">
         <v>2764</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="E227" s="5" t="s">
         <v>2742</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="F227" s="5" t="s">
         <v>2754</v>
       </c>
-      <c r="F227" s="5" t="s">
+      <c r="G227" s="5" t="s">
         <v>2744</v>
       </c>
-      <c r="G227" s="5" t="s">
+      <c r="H227" s="5" t="s">
         <v>2765</v>
       </c>
-      <c r="H227" s="5" t="s">
+      <c r="I227" s="5" t="s">
         <v>2766</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="1">
         <v>228</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B228" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C228" s="5"/>
@@ -22039,8 +22897,9 @@
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
       <c r="H228" s="5"/>
-    </row>
-    <row r="229" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I228" s="5"/>
+    </row>
+    <row r="229" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -22048,25 +22907,28 @@
         <v>55</v>
       </c>
       <c r="C229" s="5" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D229" s="5" t="s">
         <v>2358</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="E229" s="5" t="s">
         <v>2359</v>
       </c>
-      <c r="E229" s="5" t="s">
+      <c r="F229" s="5" t="s">
         <v>2360</v>
       </c>
-      <c r="F229" s="5" t="s">
+      <c r="G229" s="5" t="s">
         <v>2361</v>
       </c>
-      <c r="G229" s="5" t="s">
+      <c r="H229" s="5" t="s">
         <v>2362</v>
       </c>
-      <c r="H229" s="5" t="s">
+      <c r="I229" s="5" t="s">
         <v>2363</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -22074,25 +22936,28 @@
         <v>56</v>
       </c>
       <c r="C230" s="5" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D230" s="5" t="s">
         <v>2394</v>
-      </c>
-      <c r="D230" s="5" t="s">
-        <v>2388</v>
       </c>
       <c r="E230" s="5" t="s">
         <v>2388</v>
       </c>
       <c r="F230" s="5" t="s">
+        <v>2388</v>
+      </c>
+      <c r="G230" s="5" t="s">
         <v>2389</v>
       </c>
-      <c r="G230" s="5" t="s">
+      <c r="H230" s="5" t="s">
         <v>2391</v>
       </c>
-      <c r="H230" s="5" t="s">
+      <c r="I230" s="5" t="s">
         <v>2388</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -22100,25 +22965,28 @@
         <v>83</v>
       </c>
       <c r="C231" s="5" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D231" s="5" t="s">
         <v>2520</v>
       </c>
-      <c r="D231" s="5" t="s">
+      <c r="E231" s="5" t="s">
         <v>2521</v>
       </c>
-      <c r="E231" s="5" t="s">
+      <c r="F231" s="5" t="s">
         <v>2522</v>
       </c>
-      <c r="F231" s="5" t="s">
+      <c r="G231" s="5" t="s">
         <v>2523</v>
       </c>
-      <c r="G231" s="5" t="s">
+      <c r="H231" s="5" t="s">
         <v>2524</v>
       </c>
-      <c r="H231" s="5" t="s">
+      <c r="I231" s="5" t="s">
         <v>2525</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -22126,26 +22994,29 @@
         <v>84</v>
       </c>
       <c r="C232" s="5" t="s">
+        <v>2869</v>
+      </c>
+      <c r="D232" s="5" t="s">
         <v>2767</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="E232" s="5" t="s">
         <v>2768</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="F232" s="5" t="s">
         <v>2769</v>
       </c>
-      <c r="F232" s="5" t="s">
+      <c r="G232" s="5" t="s">
         <v>2770</v>
       </c>
-      <c r="G232" s="5" t="s">
+      <c r="H232" s="5" t="s">
         <v>2771</v>
       </c>
-      <c r="H232" s="5" t="s">
+      <c r="I232" s="5" t="s">
         <v>2772</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H232">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I232">
     <sortCondition ref="A1:A232"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/table/table.xlsx
+++ b/table/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\2_cvd_tyg\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE2F7D5E-AE45-4853-8CFF-7C1F1FC0057B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3626207-6D28-44AA-9383-6693DF64271B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8875,12 +8875,18 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -8910,7 +8916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8939,13 +8945,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9231,7 +9240,7 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G1:G1048576"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9254,40 +9263,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>1261</v>
       </c>
@@ -13199,8 +13208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65DAF29F-7A7F-4147-B016-90C1DD9DC7A5}">
   <dimension ref="A1:R80"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:B80"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13211,40 +13220,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10" t="s">
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10" t="s">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="2" t="s">
         <v>1261</v>
       </c>
@@ -14318,7 +14327,7 @@
       <c r="Q24" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="R24" s="5" t="s">
+      <c r="R24" s="13" t="s">
         <v>218</v>
       </c>
     </row>
@@ -14477,7 +14486,7 @@
       <c r="N27" s="5" t="s">
         <v>1684</v>
       </c>
-      <c r="O27" s="5" t="s">
+      <c r="O27" s="13" t="s">
         <v>218</v>
       </c>
       <c r="P27" s="5" t="s">
@@ -17101,7 +17110,7 @@
   <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21098,7 +21107,7 @@
       <c r="B157" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C157" s="12"/>
+      <c r="C157" s="10"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
